--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2190" windowHeight="1140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2190" windowHeight="1140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Network Administration</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>DevNet Associate</t>
+  </si>
+  <si>
+    <t>Wedding</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -949,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1140,9 @@
       <c r="C26" s="7">
         <v>44369</v>
       </c>
+      <c r="D26" s="7">
+        <v>44369</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -1173,11 +1179,11 @@
       </c>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>9</v>
       </c>
@@ -1188,21 +1194,21 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>10</v>
       </c>
@@ -1213,21 +1219,21 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>11</v>
       </c>
@@ -1238,21 +1244,21 @@
         <v>44373</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>12</v>
       </c>
@@ -1262,12 +1268,15 @@
       <c r="C46" s="7">
         <v>44374</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>86</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>Network Administration</t>
   </si>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>DevNet Associate</t>
-  </si>
-  <si>
-    <t>Wedding</t>
   </si>
 </sst>
 </file>
@@ -952,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1165,9 @@
       <c r="C30" s="7">
         <v>44370</v>
       </c>
+      <c r="D30" s="7">
+        <v>44370</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -1179,11 +1179,11 @@
       </c>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>9</v>
       </c>
@@ -1193,22 +1193,25 @@
       <c r="C34" s="7">
         <v>44371</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>10</v>
       </c>
@@ -1219,21 +1222,21 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>11</v>
       </c>
@@ -1244,21 +1247,21 @@
         <v>44373</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>12</v>
       </c>
@@ -1268,15 +1271,12 @@
       <c r="C46" s="7">
         <v>44374</v>
       </c>
-      <c r="E46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>86</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1220,9 @@
       </c>
       <c r="C38" s="7">
         <v>44372</v>
+      </c>
+      <c r="D38" s="7">
+        <v>44386</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587185A1-32E8-4DC7-A9B0-B630629F6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2190" windowHeight="1140" activeTab="1"/>
+    <workbookView xWindow="36975" yWindow="1515" windowWidth="13515" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -948,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,6 +1250,9 @@
       <c r="C42" s="7">
         <v>44373</v>
       </c>
+      <c r="D42" s="7">
+        <v>44387</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -2512,67 +2516,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587185A1-32E8-4DC7-A9B0-B630629F6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00704B2-D067-4E7B-9B71-AD8B987CD6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36975" yWindow="1515" windowWidth="13515" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36705" yWindow="375" windowWidth="13680" windowHeight="10125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1277,9 @@
       </c>
       <c r="C46" s="7">
         <v>44374</v>
+      </c>
+      <c r="D46" s="7">
+        <v>44388</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00704B2-D067-4E7B-9B71-AD8B987CD6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6282FA6-D620-4B3B-A986-CE9524C8CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36705" yWindow="375" windowWidth="13680" windowHeight="10125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36750" yWindow="-300" windowWidth="13635" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>13</v>
       </c>
@@ -1306,22 +1306,25 @@
       <c r="C50" s="7">
         <v>44384</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="7">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>14</v>
       </c>
@@ -1331,22 +1334,25 @@
       <c r="C54" s="7">
         <v>44385</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="7">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>15</v>
       </c>
@@ -1357,21 +1363,21 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>16</v>
       </c>
@@ -1382,11 +1388,11 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>92</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6282FA6-D620-4B3B-A986-CE9524C8CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36750" yWindow="-300" windowWidth="13635" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36750" yWindow="-300" windowWidth="13635" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -463,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1361,9 @@
       <c r="C58" s="7">
         <v>44386</v>
       </c>
+      <c r="D58" s="7">
+        <v>44389</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
@@ -1387,6 +1389,9 @@
       <c r="C62" s="7">
         <v>44387</v>
       </c>
+      <c r="D62" s="7">
+        <v>44389</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
@@ -1398,11 +1403,11 @@
       </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>17</v>
       </c>
@@ -1412,22 +1417,25 @@
       <c r="C66" s="7">
         <v>44388</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="7">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>18</v>
       </c>
@@ -1437,22 +1445,25 @@
       <c r="C70" s="7">
         <v>44389</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="7">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>19</v>
       </c>
@@ -1462,22 +1473,25 @@
       <c r="C74" s="7">
         <v>44390</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="7">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>20</v>
       </c>
@@ -1488,11 +1502,11 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>97</v>
       </c>
@@ -2525,67 +2539,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,6 +1501,9 @@
       <c r="C78" s="7">
         <v>44391</v>
       </c>
+      <c r="D78" s="7">
+        <v>44390</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
@@ -1512,11 +1515,11 @@
       </c>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>21</v>
       </c>
@@ -1526,22 +1529,25 @@
       <c r="C82" s="7">
         <v>44392</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="7">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>22</v>
       </c>
@@ -1551,22 +1557,25 @@
       <c r="C86" s="7">
         <v>44393</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="7">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>23</v>
       </c>
@@ -1576,22 +1585,25 @@
       <c r="C90" s="7">
         <v>44394</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="7">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>24</v>
       </c>
@@ -1602,11 +1614,11 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>102</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36750" yWindow="-300" windowWidth="13635" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,6 +1613,9 @@
       <c r="C94" s="7">
         <v>44395</v>
       </c>
+      <c r="D94" s="7">
+        <v>44392</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
@@ -1624,11 +1627,11 @@
       </c>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>25</v>
       </c>
@@ -1638,22 +1641,25 @@
       <c r="C98" s="7">
         <v>44396</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="7">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>26</v>
       </c>
@@ -1664,21 +1670,21 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>27</v>
       </c>
@@ -1689,21 +1695,21 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>28</v>
       </c>
@@ -1714,11 +1720,11 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>106</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,6 +1669,9 @@
       <c r="C102" s="7">
         <v>44397</v>
       </c>
+      <c r="D102" s="7">
+        <v>44393</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
@@ -1693,6 +1696,9 @@
       </c>
       <c r="C106" s="7">
         <v>44398</v>
+      </c>
+      <c r="D106" s="7">
+        <v>44393</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -952,7 +952,7 @@
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1724,9 @@
       </c>
       <c r="C110" s="7">
         <v>44399</v>
+      </c>
+      <c r="D110" s="7">
+        <v>44396</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84B9E1-8AFC-4D34-8D36-2B7E6CDA8AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="240" activeTab="1"/>
+    <workbookView xWindow="28755" yWindow="-15105" windowWidth="21630" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -462,8 +463,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,48 +473,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1B2733"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF455060"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -521,31 +514,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Dark" xfId="2" xr:uid="{4BC45B33-536F-4C0F-94E6-694F52AA2B47}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,7 +598,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -590,7 +610,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -823,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -948,1682 +968,1693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="82.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>44365</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>44365</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>44365</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>44365</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>44365</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>44365</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>44366</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>44366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>44367</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>44368</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>44368</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>44368</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>7</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>44369</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>44369</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>8</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>44370</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>44370</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>44371</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>44370</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>44372</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>44386</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>11</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>44373</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>44387</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>12</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>44374</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>44388</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>13</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>44384</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>44388</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>14</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>44385</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>44388</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>15</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>44386</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>44389</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>16</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>44387</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>44389</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>17</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>44388</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>44389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>18</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>44389</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>44389</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>19</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>44390</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>44389</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>20</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>44391</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>44390</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>21</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>44392</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>44390</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>22</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>44393</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>44390</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>23</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>44394</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>44390</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>24</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>44395</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>44392</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>25</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>44396</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>44392</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>26</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <v>44397</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <v>44393</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>27</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <v>44398</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="6">
         <v>44393</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>28</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>44399</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="6">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>29</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>44400</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="6"/>
+    </row>
+    <row r="118" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>30</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <v>44401</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>31</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <v>44402</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>32</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <v>44403</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>33</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <v>44405</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>34</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="6">
         <v>44406</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
-      <c r="C135" s="7"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="6" t="s">
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="7"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
-      <c r="C137" s="7"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>35</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <v>44407</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="6" t="s">
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C140" s="7"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
-      <c r="C141" s="7"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>36</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <v>44408</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
-      <c r="C143" s="7"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="6" t="s">
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>37</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <v>44409</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="6" t="s">
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C148" s="7"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>38</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="6">
         <v>44410</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="6" t="s">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>39</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <v>44411</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
-      <c r="C155" s="7"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
-      <c r="C157" s="7"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>40</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="6">
         <v>44412</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="6" t="s">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="6"/>
+    </row>
+    <row r="161" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
-      <c r="C161" s="7"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>41</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <v>44413</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
-      <c r="C163" s="7"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="6" t="s">
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C164" s="7"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="6"/>
+    </row>
+    <row r="165" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>42</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <v>44414</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="6" t="s">
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="6"/>
+    </row>
+    <row r="169" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
-      <c r="C169" s="7"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>43</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <v>44415</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="6" t="s">
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C172" s="7"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
-      <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>44</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <v>44416</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C176" s="7"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
-      <c r="C177" s="7"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>45</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <v>44417</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
-      <c r="C179" s="7"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="6" t="s">
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C180" s="7"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
-      <c r="C181" s="7"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>46</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <v>44418</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
-      <c r="C183" s="7"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="6" t="s">
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C184" s="7"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
-      <c r="C185" s="7"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>47</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <v>44419</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
-      <c r="C187" s="7"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="6" t="s">
+      <c r="C187" s="6"/>
+    </row>
+    <row r="188" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C188" s="7"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
-      <c r="C189" s="7"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>48</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <v>44420</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
-      <c r="C191" s="7"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="6" t="s">
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C192" s="7"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="6"/>
+    </row>
+    <row r="193" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
-      <c r="C193" s="7"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>49</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <v>44421</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
-      <c r="C195" s="7"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C196" s="7"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
-      <c r="C197" s="7"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>50</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="6">
         <v>44422</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
-      <c r="C199" s="7"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="6" t="s">
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C200" s="7"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
-      <c r="C201" s="7"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>51</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <v>44423</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
-      <c r="C203" s="7"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="6" t="s">
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C204" s="7"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
-      <c r="C205" s="7"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>52</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <v>44424</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
-      <c r="C207" s="7"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="6" t="s">
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C208" s="7"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
-      <c r="C209" s="7"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>53</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <v>44425</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
-      <c r="C211" s="7"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="6" t="s">
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C212" s="7"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
-      <c r="C213" s="7"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>54</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <v>44426</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
-      <c r="C215" s="7"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C216" s="7"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
-      <c r="C217" s="7"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>55</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="6">
         <v>44427</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
-      <c r="C219" s="7"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C220" s="7"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
-      <c r="C221" s="7"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>56</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="6">
         <v>44428</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
-      <c r="C223" s="7"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C224" s="7"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
-      <c r="C225" s="7"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>57</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="6">
         <v>44429</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
-      <c r="C227" s="7"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C228" s="7"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
-      <c r="C229" s="7"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>58</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="6">
         <v>44430</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
-      <c r="C231" s="7"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="6" t="s">
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C232" s="7"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
-      <c r="C233" s="7"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>59</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="6">
         <v>44431</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
-      <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="6" t="s">
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C236" s="7"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
-      <c r="C237" s="7"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>60</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="6">
         <v>44432</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
-      <c r="C239" s="7"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="s">
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C240" s="7"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
-      <c r="C241" s="7"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>61</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="6">
         <v>44433</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
-      <c r="C243" s="7"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="s">
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C244" s="7"/>
-    </row>
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="246" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="248" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="249" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="251" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="252" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C6FC8-8EF9-4DD4-B872-7AEF30F627D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="240" activeTab="1"/>
+    <workbookView xWindow="28755" yWindow="-15105" windowWidth="21630" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -948,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,11 +1740,11 @@
       </c>
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>29</v>
       </c>
@@ -1753,22 +1754,25 @@
       <c r="C114" s="7">
         <v>44400</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="7">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>30</v>
       </c>
@@ -1778,22 +1782,25 @@
       <c r="C118" s="7">
         <v>44401</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="7">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C120" s="7"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>31</v>
       </c>
@@ -1803,22 +1810,25 @@
       <c r="C122" s="7">
         <v>44402</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="7">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C124" s="7"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>32</v>
       </c>
@@ -1829,11 +1839,11 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>111</v>
       </c>
@@ -2566,67 +2576,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C6FC8-8EF9-4DD4-B872-7AEF30F627D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067C3FF-20E1-48D1-BF4F-A491BF4B174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28755" yWindow="-15105" windowWidth="21630" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,6 +1837,9 @@
       </c>
       <c r="C126" s="7">
         <v>44403</v>
+      </c>
+      <c r="D126" s="7">
+        <v>44399</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067C3FF-20E1-48D1-BF4F-A491BF4B174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-15105" windowWidth="21630" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-15105" windowWidth="13860" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -463,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,11 +2051,11 @@
       </c>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>41</v>
       </c>
@@ -2067,21 +2066,21 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42</v>
       </c>
@@ -2092,21 +2091,21 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43</v>
       </c>
@@ -2117,21 +2116,21 @@
         <v>44415</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44</v>
       </c>
@@ -2141,12 +2140,15 @@
       <c r="C174" s="7">
         <v>44416</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="7">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
         <v>122</v>
       </c>
@@ -2579,67 +2581,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C128" s="7"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>33</v>
       </c>
@@ -1865,22 +1865,25 @@
       <c r="C130" s="7">
         <v>44405</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="7">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>34</v>
       </c>
@@ -1890,22 +1893,25 @@
       <c r="C134" s="7">
         <v>44406</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="7">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>35</v>
       </c>
@@ -1916,21 +1922,21 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>36</v>
       </c>
@@ -1941,11 +1947,11 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>114</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C8ECB-A77F-4E4F-A8A8-0016459EEB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15105" windowWidth="13860" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="30810" yWindow="7950" windowWidth="17745" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -948,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,6 +1922,9 @@
       <c r="C138" s="7">
         <v>44407</v>
       </c>
+      <c r="D138" s="7">
+        <v>44401</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
@@ -1946,6 +1950,9 @@
       <c r="C142" s="7">
         <v>44408</v>
       </c>
+      <c r="D142" s="7">
+        <v>44401</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
@@ -1957,11 +1964,11 @@
       </c>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>37</v>
       </c>
@@ -1971,22 +1978,25 @@
       <c r="C146" s="7">
         <v>44409</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="7">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>38</v>
       </c>
@@ -1997,21 +2007,21 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>39</v>
       </c>
@@ -2022,21 +2032,21 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>40</v>
       </c>
@@ -2047,11 +2057,11 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>118</v>
       </c>
@@ -2587,67 +2597,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C8ECB-A77F-4E4F-A8A8-0016459EEB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E377C1-3BD3-4986-AC74-A590E6DA0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="7950" windowWidth="17745" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32910" yWindow="6555" windowWidth="17745" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,6 +2006,9 @@
       <c r="C150" s="7">
         <v>44410</v>
       </c>
+      <c r="D150" s="7">
+        <v>44401</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
@@ -2030,6 +2033,9 @@
       </c>
       <c r="C154" s="7">
         <v>44411</v>
+      </c>
+      <c r="D154" s="7">
+        <v>44402</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E377C1-3BD3-4986-AC74-A590E6DA0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32910" yWindow="6555" windowWidth="17745" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="3375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -463,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,6 +2061,9 @@
       <c r="C158" s="7">
         <v>44412</v>
       </c>
+      <c r="D158" s="7">
+        <v>44403</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
@@ -2087,6 +2089,9 @@
       <c r="C162" s="7">
         <v>44413</v>
       </c>
+      <c r="D162" s="7">
+        <v>44404</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
@@ -2112,6 +2117,9 @@
       <c r="C166" s="7">
         <v>44414</v>
       </c>
+      <c r="D166" s="7">
+        <v>44404</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
@@ -2137,6 +2145,9 @@
       <c r="C170" s="7">
         <v>44415</v>
       </c>
+      <c r="D170" s="7">
+        <v>44404</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
@@ -2603,67 +2614,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,11 +2187,11 @@
       </c>
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>45</v>
       </c>
@@ -2201,22 +2201,25 @@
       <c r="C178" s="7">
         <v>44417</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="7">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="7"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C180" s="7"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="C181" s="7"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>46</v>
       </c>
@@ -2227,21 +2230,21 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="C183" s="7"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C184" s="7"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="C185" s="7"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>47</v>
       </c>
@@ -2252,21 +2255,21 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="C187" s="7"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C188" s="7"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="7"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>48</v>
       </c>
@@ -2277,11 +2280,11 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="C191" s="7"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>126</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="B166" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,6 +2229,9 @@
       <c r="C182" s="7">
         <v>44418</v>
       </c>
+      <c r="D182" s="7">
+        <v>44406</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
@@ -2253,6 +2256,9 @@
       </c>
       <c r="C186" s="7">
         <v>44419</v>
+      </c>
+      <c r="D186" s="7">
+        <v>44406</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3AD58-CACD-4E71-9B2B-AAF91B6F45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="3375" activeTab="1"/>
+    <workbookView xWindow="29580" yWindow="-13170" windowWidth="18885" windowHeight="19230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Completion Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cloud Administrator </t>
   </si>
   <si>
@@ -457,12 +455,15 @@
   </si>
   <si>
     <t>DevNet Associate</t>
+  </si>
+  <si>
+    <t>Exam Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,11 +824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,87 +860,87 @@
         <v>44365</v>
       </c>
       <c r="D3" s="1">
-        <v>44409</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -948,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B166" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,16 +966,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7">
         <v>44365</v>
@@ -996,7 +997,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7">
         <v>44365</v>
@@ -1021,7 +1022,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7">
         <v>44365</v>
@@ -1046,7 +1047,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>44366</v>
@@ -1071,7 +1072,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <v>44367</v>
@@ -1096,7 +1097,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="7">
         <v>44368</v>
@@ -1121,7 +1122,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7">
         <v>44369</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7"/>
     </row>
@@ -1160,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
         <v>44370</v>
@@ -1175,7 +1176,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -1188,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="7">
         <v>44371</v>
@@ -1203,7 +1204,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -1216,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7">
         <v>44372</v>
@@ -1231,7 +1232,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="7"/>
     </row>
@@ -1244,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="7">
         <v>44373</v>
@@ -1259,7 +1260,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -1272,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="7">
         <v>44374</v>
@@ -1287,7 +1288,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="7"/>
     </row>
@@ -1300,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7">
         <v>44384</v>
@@ -1315,7 +1316,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -1328,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="7">
         <v>44385</v>
@@ -1343,7 +1344,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -1356,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="7">
         <v>44386</v>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -1384,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="7">
         <v>44387</v>
@@ -1399,7 +1400,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
     </row>
@@ -1412,7 +1413,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7">
         <v>44388</v>
@@ -1427,7 +1428,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
     </row>
@@ -1440,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="7">
         <v>44389</v>
@@ -1455,7 +1456,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="7"/>
     </row>
@@ -1468,7 +1469,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="7">
         <v>44390</v>
@@ -1483,7 +1484,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="7"/>
     </row>
@@ -1496,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" s="7">
         <v>44391</v>
@@ -1511,7 +1512,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="7"/>
     </row>
@@ -1524,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="7">
         <v>44392</v>
@@ -1539,7 +1540,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="7"/>
     </row>
@@ -1552,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="7">
         <v>44393</v>
@@ -1567,7 +1568,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="7"/>
     </row>
@@ -1580,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="7">
         <v>44394</v>
@@ -1595,7 +1596,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="7"/>
     </row>
@@ -1608,7 +1609,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="7">
         <v>44395</v>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="7"/>
     </row>
@@ -1636,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98" s="7">
         <v>44396</v>
@@ -1651,7 +1652,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="7"/>
     </row>
@@ -1664,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" s="7">
         <v>44397</v>
@@ -1679,7 +1680,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -1692,7 +1693,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" s="7">
         <v>44398</v>
@@ -1707,7 +1708,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="7"/>
     </row>
@@ -1720,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C110" s="7">
         <v>44399</v>
@@ -1735,7 +1736,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="7"/>
     </row>
@@ -1748,7 +1749,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="7">
         <v>44400</v>
@@ -1763,7 +1764,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="7"/>
     </row>
@@ -1776,7 +1777,7 @@
         <v>30</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="7">
         <v>44401</v>
@@ -1791,7 +1792,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120" s="7"/>
     </row>
@@ -1804,7 +1805,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="7">
         <v>44402</v>
@@ -1819,7 +1820,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C124" s="7"/>
     </row>
@@ -1832,7 +1833,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C126" s="7">
         <v>44403</v>
@@ -1847,7 +1848,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="7"/>
     </row>
@@ -1860,7 +1861,7 @@
         <v>33</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C130" s="7">
         <v>44405</v>
@@ -1875,7 +1876,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="7"/>
     </row>
@@ -1888,7 +1889,7 @@
         <v>34</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" s="7">
         <v>44406</v>
@@ -1903,7 +1904,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -1916,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C138" s="7">
         <v>44407</v>
@@ -1931,7 +1932,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -1944,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C142" s="7">
         <v>44408</v>
@@ -1959,7 +1960,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -1972,7 +1973,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C146" s="7">
         <v>44409</v>
@@ -1987,7 +1988,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -2000,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="7">
         <v>44410</v>
@@ -2015,7 +2016,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -2028,7 +2029,7 @@
         <v>39</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" s="7">
         <v>44411</v>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -2056,7 +2057,7 @@
         <v>40</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C158" s="7">
         <v>44412</v>
@@ -2071,7 +2072,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -2084,7 +2085,7 @@
         <v>41</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C162" s="7">
         <v>44413</v>
@@ -2099,7 +2100,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -2112,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C166" s="7">
         <v>44414</v>
@@ -2127,7 +2128,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C168" s="7"/>
     </row>
@@ -2140,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" s="7">
         <v>44415</v>
@@ -2155,7 +2156,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C172" s="7"/>
     </row>
@@ -2168,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C174" s="7">
         <v>44416</v>
@@ -2183,7 +2184,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -2196,7 +2197,7 @@
         <v>45</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C178" s="7">
         <v>44417</v>
@@ -2211,7 +2212,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C180" s="7"/>
     </row>
@@ -2224,7 +2225,7 @@
         <v>46</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C182" s="7">
         <v>44418</v>
@@ -2239,7 +2240,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C184" s="7"/>
     </row>
@@ -2252,7 +2253,7 @@
         <v>47</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C186" s="7">
         <v>44419</v>
@@ -2267,7 +2268,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C188" s="7"/>
     </row>
@@ -2280,10 +2281,13 @@
         <v>48</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C190" s="7">
         <v>44420</v>
+      </c>
+      <c r="D190" s="7">
+        <v>44406</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,107 +2296,113 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C192" s="7"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="C193" s="7"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>49</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C194" s="7">
         <v>44421</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="7">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
       <c r="C195" s="7"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C196" s="7"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="C197" s="7"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>50</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C198" s="7">
         <v>44422</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="7">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="C199" s="7"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C200" s="7"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="C201" s="7"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>51</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C202" s="7">
         <v>44423</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="C203" s="7"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C204" s="7"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="C205" s="7"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>52</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C206" s="7">
         <v>44424</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="C207" s="7"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C208" s="7"/>
     </row>
@@ -2405,7 +2415,7 @@
         <v>53</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C210" s="7">
         <v>44425</v>
@@ -2417,7 +2427,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -2430,7 +2440,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C214" s="7">
         <v>44426</v>
@@ -2442,7 +2452,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C216" s="7"/>
     </row>
@@ -2455,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C218" s="7">
         <v>44427</v>
@@ -2467,7 +2477,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -2480,7 +2490,7 @@
         <v>56</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C222" s="7">
         <v>44428</v>
@@ -2492,7 +2502,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C224" s="7"/>
     </row>
@@ -2505,7 +2515,7 @@
         <v>57</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C226" s="7">
         <v>44429</v>
@@ -2517,7 +2527,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228" s="7"/>
     </row>
@@ -2530,7 +2540,7 @@
         <v>58</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C230" s="7">
         <v>44430</v>
@@ -2542,7 +2552,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C232" s="7"/>
     </row>
@@ -2555,7 +2565,7 @@
         <v>59</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C234" s="7">
         <v>44431</v>
@@ -2567,7 +2577,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C236" s="7"/>
     </row>
@@ -2580,7 +2590,7 @@
         <v>60</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C238" s="7">
         <v>44432</v>
@@ -2592,7 +2602,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B240" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -2605,7 +2615,7 @@
         <v>61</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C242" s="7">
         <v>44433</v>
@@ -2617,73 +2627,73 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C244" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3AD58-CACD-4E71-9B2B-AAF91B6F45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-13170" windowWidth="18885" windowHeight="19230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-13170" windowWidth="14460" windowHeight="16590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -463,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,6 +2369,9 @@
       <c r="C202" s="7">
         <v>44423</v>
       </c>
+      <c r="D202" s="7">
+        <v>44407</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
@@ -2395,6 +2397,9 @@
       <c r="C206" s="7">
         <v>44424</v>
       </c>
+      <c r="D206" s="7">
+        <v>44407</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
@@ -2406,11 +2411,11 @@
       </c>
       <c r="C208" s="7"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="C209" s="7"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>53</v>
       </c>
@@ -2420,22 +2425,25 @@
       <c r="C210" s="7">
         <v>44425</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="7">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="C211" s="7"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C212" s="7"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="C213" s="7"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>54</v>
       </c>
@@ -2446,21 +2454,21 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="C215" s="7"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C216" s="7"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="C217" s="7"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>55</v>
       </c>
@@ -2471,21 +2479,21 @@
         <v>44427</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C220" s="7"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>56</v>
       </c>
@@ -2496,11 +2504,11 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="C223" s="7"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
         <v>133</v>
       </c>
@@ -2633,67 +2641,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27689F91-4B36-4CDA-BAC2-AAA8411129AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-13170" windowWidth="14460" windowHeight="16590" activeTab="1"/>
+    <workbookView xWindow="34905" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
-  <si>
-    <t>Network Administration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -36,36 +34,12 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloud Administrator </t>
-  </si>
-  <si>
-    <t>AWS Certified Cloud Pracitioner</t>
-  </si>
-  <si>
-    <t>AWS Certified Solutions Architect - Associate</t>
-  </si>
-  <si>
-    <t>AWS Certified Developer - Associate</t>
-  </si>
-  <si>
-    <t>Microsoft Certified: Azure Administrator Associate</t>
-  </si>
-  <si>
     <t>Microsoft Certified: Azure Developer Associate</t>
   </si>
   <si>
-    <t>Cybersecurity</t>
-  </si>
-  <si>
-    <t>CISA</t>
-  </si>
-  <si>
     <t>AWS Certified Security - Specialty</t>
   </si>
   <si>
-    <t>Microsoft Certified: Azure Security Engineer Associate</t>
-  </si>
-  <si>
     <t>Programming Languages</t>
   </si>
   <si>
@@ -457,12 +431,54 @@
   </si>
   <si>
     <t>Exam Date</t>
+  </si>
+  <si>
+    <t>DevNet Professional</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Fundamentals</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWS Certified Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>AWS Certified Developer – Associate</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Cloud Digital Leader</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Cloud DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>CCNA - Network Associate</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Certified: Modern Desktop Administrator Associate</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Certified: Enterprise Administrator Expert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,37 +839,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>44365</v>
@@ -863,96 +879,126 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="A14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="B217" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,16 +1011,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7">
         <v>44365</v>
@@ -996,7 +1042,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7">
         <v>44365</v>
@@ -1021,7 +1067,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7">
         <v>44365</v>
@@ -1046,7 +1092,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7">
         <v>44366</v>
@@ -1071,7 +1117,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7">
         <v>44367</v>
@@ -1096,7 +1142,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C22" s="7">
         <v>44368</v>
@@ -1121,7 +1167,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
         <v>44369</v>
@@ -1147,7 +1193,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7"/>
     </row>
@@ -1160,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C30" s="7">
         <v>44370</v>
@@ -1175,7 +1221,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -1188,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C34" s="7">
         <v>44371</v>
@@ -1203,7 +1249,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -1216,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7">
         <v>44372</v>
@@ -1231,7 +1277,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C40" s="7"/>
     </row>
@@ -1244,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7">
         <v>44373</v>
@@ -1259,7 +1305,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -1272,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C46" s="7">
         <v>44374</v>
@@ -1287,7 +1333,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7"/>
     </row>
@@ -1300,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C50" s="7">
         <v>44384</v>
@@ -1315,7 +1361,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -1328,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7">
         <v>44385</v>
@@ -1343,7 +1389,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -1356,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7">
         <v>44386</v>
@@ -1371,7 +1417,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -1384,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7">
         <v>44387</v>
@@ -1399,7 +1445,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7"/>
     </row>
@@ -1412,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C66" s="7">
         <v>44388</v>
@@ -1427,7 +1473,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7"/>
     </row>
@@ -1440,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C70" s="7">
         <v>44389</v>
@@ -1455,7 +1501,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C72" s="7"/>
     </row>
@@ -1468,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C74" s="7">
         <v>44390</v>
@@ -1483,7 +1529,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C76" s="7"/>
     </row>
@@ -1496,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C78" s="7">
         <v>44391</v>
@@ -1511,7 +1557,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C80" s="7"/>
     </row>
@@ -1524,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C82" s="7">
         <v>44392</v>
@@ -1539,7 +1585,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7"/>
     </row>
@@ -1552,7 +1598,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C86" s="7">
         <v>44393</v>
@@ -1567,7 +1613,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C88" s="7"/>
     </row>
@@ -1580,7 +1626,7 @@
         <v>23</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C90" s="7">
         <v>44394</v>
@@ -1595,7 +1641,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C92" s="7"/>
     </row>
@@ -1608,7 +1654,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C94" s="7">
         <v>44395</v>
@@ -1623,7 +1669,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C96" s="7"/>
     </row>
@@ -1636,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C98" s="7">
         <v>44396</v>
@@ -1651,7 +1697,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C100" s="7"/>
     </row>
@@ -1664,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C102" s="7">
         <v>44397</v>
@@ -1679,7 +1725,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C104" s="7"/>
     </row>
@@ -1692,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C106" s="7">
         <v>44398</v>
@@ -1707,7 +1753,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C108" s="7"/>
     </row>
@@ -1720,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C110" s="7">
         <v>44399</v>
@@ -1735,7 +1781,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C112" s="7"/>
     </row>
@@ -1748,7 +1794,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C114" s="7">
         <v>44400</v>
@@ -1763,7 +1809,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C116" s="7"/>
     </row>
@@ -1776,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C118" s="7">
         <v>44401</v>
@@ -1791,7 +1837,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C120" s="7"/>
     </row>
@@ -1804,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C122" s="7">
         <v>44402</v>
@@ -1819,7 +1865,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C124" s="7"/>
     </row>
@@ -1832,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C126" s="7">
         <v>44403</v>
@@ -1847,7 +1893,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C128" s="7"/>
     </row>
@@ -1860,7 +1906,7 @@
         <v>33</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C130" s="7">
         <v>44405</v>
@@ -1875,7 +1921,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C132" s="7"/>
     </row>
@@ -1888,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C134" s="7">
         <v>44406</v>
@@ -1903,7 +1949,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C136" s="7"/>
     </row>
@@ -1916,7 +1962,7 @@
         <v>35</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C138" s="7">
         <v>44407</v>
@@ -1931,7 +1977,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C140" s="7"/>
     </row>
@@ -1944,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C142" s="7">
         <v>44408</v>
@@ -1959,7 +2005,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C144" s="7"/>
     </row>
@@ -1972,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C146" s="7">
         <v>44409</v>
@@ -1987,7 +2033,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C148" s="7"/>
     </row>
@@ -2000,7 +2046,7 @@
         <v>38</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C150" s="7">
         <v>44410</v>
@@ -2015,7 +2061,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C152" s="7"/>
     </row>
@@ -2028,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C154" s="7">
         <v>44411</v>
@@ -2043,7 +2089,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C156" s="7"/>
     </row>
@@ -2056,7 +2102,7 @@
         <v>40</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C158" s="7">
         <v>44412</v>
@@ -2071,7 +2117,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C160" s="7"/>
     </row>
@@ -2084,7 +2130,7 @@
         <v>41</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C162" s="7">
         <v>44413</v>
@@ -2099,7 +2145,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C164" s="7"/>
     </row>
@@ -2112,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C166" s="7">
         <v>44414</v>
@@ -2127,7 +2173,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C168" s="7"/>
     </row>
@@ -2140,7 +2186,7 @@
         <v>43</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C170" s="7">
         <v>44415</v>
@@ -2155,7 +2201,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C172" s="7"/>
     </row>
@@ -2168,7 +2214,7 @@
         <v>44</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C174" s="7">
         <v>44416</v>
@@ -2183,7 +2229,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C176" s="7"/>
     </row>
@@ -2196,7 +2242,7 @@
         <v>45</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C178" s="7">
         <v>44417</v>
@@ -2211,7 +2257,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C180" s="7"/>
     </row>
@@ -2224,7 +2270,7 @@
         <v>46</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C182" s="7">
         <v>44418</v>
@@ -2239,7 +2285,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C184" s="7"/>
     </row>
@@ -2252,7 +2298,7 @@
         <v>47</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C186" s="7">
         <v>44419</v>
@@ -2267,7 +2313,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C188" s="7"/>
     </row>
@@ -2280,7 +2326,7 @@
         <v>48</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C190" s="7">
         <v>44420</v>
@@ -2295,7 +2341,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C192" s="7"/>
     </row>
@@ -2308,7 +2354,7 @@
         <v>49</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C194" s="7">
         <v>44421</v>
@@ -2323,7 +2369,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C196" s="7"/>
     </row>
@@ -2336,7 +2382,7 @@
         <v>50</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C198" s="7">
         <v>44422</v>
@@ -2351,7 +2397,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C200" s="7"/>
     </row>
@@ -2364,7 +2410,7 @@
         <v>51</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C202" s="7">
         <v>44423</v>
@@ -2379,7 +2425,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C204" s="7"/>
     </row>
@@ -2392,7 +2438,7 @@
         <v>52</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C206" s="7">
         <v>44424</v>
@@ -2407,7 +2453,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C208" s="7"/>
     </row>
@@ -2420,7 +2466,7 @@
         <v>53</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C210" s="7">
         <v>44425</v>
@@ -2435,7 +2481,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C212" s="7"/>
     </row>
@@ -2448,10 +2494,13 @@
         <v>54</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C214" s="7">
         <v>44426</v>
+      </c>
+      <c r="D214" s="7">
+        <v>44408</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,7 +2509,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C216" s="7"/>
     </row>
@@ -2473,10 +2522,13 @@
         <v>55</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C218" s="7">
         <v>44427</v>
+      </c>
+      <c r="D218" s="7">
+        <v>44408</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,7 +2537,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C220" s="7"/>
     </row>
@@ -2498,10 +2550,13 @@
         <v>56</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C222" s="7">
         <v>44428</v>
+      </c>
+      <c r="D222" s="7">
+        <v>44408</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,107 +2565,113 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C224" s="7"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="C225" s="7"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>57</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C226" s="7">
         <v>44429</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="7">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="C227" s="7"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C228" s="7"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
       <c r="C229" s="7"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>58</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C230" s="7">
         <v>44430</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="7">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="C231" s="7"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C232" s="7"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
       <c r="C233" s="7"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>59</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C234" s="7">
         <v>44431</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
       <c r="C235" s="7"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>60</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C238" s="7">
         <v>44432</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C240" s="7"/>
     </row>
@@ -2623,7 +2684,7 @@
         <v>61</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C242" s="7">
         <v>44433</v>
@@ -2635,73 +2696,73 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C244" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27689F91-4B36-4CDA-BAC2-AAA8411129AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BDDB3-B7F5-41CB-8B28-90ABC7C63F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34905" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B217" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,6 +2639,9 @@
       <c r="C234" s="7">
         <v>44431</v>
       </c>
+      <c r="D234" s="7">
+        <v>44409</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
@@ -2664,6 +2667,9 @@
       <c r="C238" s="7">
         <v>44432</v>
       </c>
+      <c r="D238" s="7">
+        <v>44409</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
@@ -2675,11 +2681,11 @@
       </c>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
       <c r="C241" s="7"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>61</v>
       </c>
@@ -2689,12 +2695,15 @@
       <c r="C242" s="7">
         <v>44433</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="7">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
       <c r="C243" s="7"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>129</v>
       </c>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BDDB3-B7F5-41CB-8B28-90ABC7C63F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34905" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -473,12 +472,72 @@
   </si>
   <si>
     <t>Microsoft 365 Certified: Enterprise Administrator Expert</t>
+  </si>
+  <si>
+    <t>Custom Quiz</t>
+  </si>
+  <si>
+    <t>Network Fundamentals</t>
+  </si>
+  <si>
+    <t>Explain the role and function of network components</t>
+  </si>
+  <si>
+    <t>Describe charactersics of network topology architectures</t>
+  </si>
+  <si>
+    <t>Compare physica interface and cabling types</t>
+  </si>
+  <si>
+    <t>Identify interface and cable issues (collisions, errors, mismatch duplex, and/or speed)</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Compare TCP tp UDP</t>
+  </si>
+  <si>
+    <t>Configure and verify IPv4 addressing and subnetting</t>
+  </si>
+  <si>
+    <t>Describe the need for private IPv4 addressing</t>
+  </si>
+  <si>
+    <t>Configure and verify IPv6 addressing and prefix</t>
+  </si>
+  <si>
+    <t>Compare IPv6 address types</t>
+  </si>
+  <si>
+    <t>Verify IP paramaters for Client OS (Windows, Mac OS, Linux)</t>
+  </si>
+  <si>
+    <t>Describe wireless principles</t>
+  </si>
+  <si>
+    <t>Explain virtualization fundamentals (virtual machines)</t>
+  </si>
+  <si>
+    <t>Describe switching concepts</t>
+  </si>
+  <si>
+    <t>Network Access</t>
+  </si>
+  <si>
+    <t>Configure and verify VLANs (normal range) spanning multiple switches</t>
+  </si>
+  <si>
+    <t>Configure and verify interswitch connectivity</t>
+  </si>
+  <si>
+    <t>Configure and verify Layer 2 discovery protocoles (Cisco Discovery Protocol and LLDP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -994,11 +1053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,9 +1066,12 @@
     <col min="2" max="2" width="82.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1084,14 @@
       <c r="D1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1036,19 +1104,43 @@
       <c r="D2" s="7">
         <v>44365</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1061,19 +1153,37 @@
       <c r="D6" s="7">
         <v>44365</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1086,19 +1196,31 @@
       <c r="D10" s="7">
         <v>44365</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -1111,19 +1233,34 @@
       <c r="D14" s="7">
         <v>44366</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1136,19 +1273,25 @@
       <c r="D18" s="7">
         <v>44368</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -1162,18 +1305,18 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>7</v>
       </c>
@@ -1187,21 +1330,21 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>8</v>
       </c>
@@ -1215,11 +1358,11 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
@@ -2711,67 +2854,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="177">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -532,13 +532,37 @@
   </si>
   <si>
     <t>Configure and verify Layer 2 discovery protocoles (Cisco Discovery Protocol and LLDP)</t>
+  </si>
+  <si>
+    <t>Flash Cards</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Configure and verify (Layer 2/Layer 3) EtherChannel (LACP)</t>
+  </si>
+  <si>
+    <t>Describe the need for and basic operations of Rapid PVST + Spanning Tree Protocol and identify basic operations</t>
+  </si>
+  <si>
+    <t>Compare cisco wireless architectures and AP modes</t>
+  </si>
+  <si>
+    <t>Describe physical infrastructure connections of WLAN componenets (AP, WLC, access/trunk ports), and LAG</t>
+  </si>
+  <si>
+    <t>Describe AP and WLC management access connections (Telnet, SSH, HTTP, HTTPS, console, and TACACS+/RADIUS</t>
+  </si>
+  <si>
+    <t>Configure the components of a wireless LAN access for client connectivity using GUI only such as WLAN creation, security settings, QoS profiles, and advanced WLAN settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,37 +579,73 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1B2733"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF455060"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -601,23 +661,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1054,1803 +1121,6141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="82.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="78.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="77.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="12">
         <v>44365</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="12">
         <v>44365</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="G3" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
+        <v>99</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="10">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="G5" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="10">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="12">
         <v>44365</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <v>44365</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="G7" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="10">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="G9" t="s">
+      <c r="H8" s="10">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="12">
         <v>44365</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <v>44365</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="G11" t="s">
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="G13" t="s">
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="H13" s="10">
+        <v>9</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="12">
         <v>44366</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="12">
         <v>44366</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="G15" t="s">
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="H15" s="10">
+        <v>8</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="G17" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="H17" s="10">
+        <v>15</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="12">
         <v>44367</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="12">
         <v>44368</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="G19" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="12">
         <v>44368</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="12">
         <v>44368</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>7</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="12">
         <v>44369</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="12">
         <v>44369</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>8</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="12">
         <v>44370</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="12">
         <v>44370</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="12">
         <v>44371</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="12">
         <v>44370</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>10</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="12">
         <v>44372</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="12">
         <v>44386</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>11</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="12">
         <v>44373</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="12">
         <v>44387</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="C44" s="12"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>12</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="12">
         <v>44374</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="12">
         <v>44388</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="C48" s="12"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>13</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="12">
         <v>44384</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="12">
         <v>44388</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="C52" s="12"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>14</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="12">
         <v>44385</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="12">
         <v>44388</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="C56" s="12"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>15</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="12">
         <v>44386</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="12">
         <v>44389</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="C60" s="12"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>16</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="12">
         <v>44387</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="12">
         <v>44389</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="C64" s="12"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>17</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="12">
         <v>44388</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="12">
         <v>44389</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="5"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="C68" s="12"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>18</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="12">
         <v>44389</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="12">
         <v>44389</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="C72" s="12"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>19</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="12">
         <v>44390</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="12">
         <v>44389</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="C76" s="12"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>20</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="12">
         <v>44391</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="12">
         <v>44390</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="5"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="C80" s="12"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>21</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="12">
         <v>44392</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="12">
         <v>44390</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="C84" s="12"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>22</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="12">
         <v>44393</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="12">
         <v>44390</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="C88" s="12"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>23</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="12">
         <v>44394</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="12">
         <v>44390</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="C92" s="12"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>24</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="12">
         <v>44395</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="12">
         <v>44392</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="C96" s="12"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
         <v>25</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="12">
         <v>44396</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="12">
         <v>44392</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="C100" s="12"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
         <v>26</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="12">
         <v>44397</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="12">
         <v>44393</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="C104" s="12"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
         <v>27</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="12">
         <v>44398</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="12">
         <v>44393</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="C108" s="12"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
         <v>28</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="12">
         <v>44399</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="12">
         <v>44396</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="5"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="C112" s="12"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
         <v>29</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="12">
         <v>44400</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="12">
         <v>44398</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="C116" s="12"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
         <v>30</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="12">
         <v>44401</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="12">
         <v>44398</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="5"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="C120" s="12"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
         <v>31</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="12">
         <v>44402</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="12">
         <v>44398</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="5"/>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="5"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="C124" s="12"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
         <v>32</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="12">
         <v>44403</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="12">
         <v>44399</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="5"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="5"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="C128" s="12"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
         <v>33</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="12">
         <v>44405</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="12">
         <v>44400</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="5"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="5"/>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="C132" s="12"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
         <v>34</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="12">
         <v>44406</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="12">
         <v>44400</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
-      <c r="C135" s="7"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="6" t="s">
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C136" s="7"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="5"/>
-      <c r="C137" s="7"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="C136" s="12"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
         <v>35</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="12">
         <v>44407</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="12">
         <v>44401</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="5"/>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="6" t="s">
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C140" s="7"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="5"/>
-      <c r="C141" s="7"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="C140" s="12"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
         <v>36</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="12">
         <v>44408</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="12">
         <v>44401</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="5"/>
-      <c r="C143" s="7"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="6" t="s">
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="5"/>
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="C144" s="12"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
         <v>37</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="12">
         <v>44409</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="12">
         <v>44401</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="6" t="s">
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C148" s="7"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="5"/>
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="C148" s="12"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
         <v>38</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="12">
         <v>44410</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="12">
         <v>44401</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="5"/>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="6" t="s">
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="C152" s="12"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
         <v>39</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="12">
         <v>44411</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="12">
         <v>44402</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="5"/>
-      <c r="C155" s="7"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="5"/>
-      <c r="C157" s="7"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="C156" s="12"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
         <v>40</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="12">
         <v>44412</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="12">
         <v>44403</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="6" t="s">
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="5"/>
-      <c r="C161" s="7"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="C160" s="12"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
         <v>41</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="12">
         <v>44413</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="12">
         <v>44404</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="5"/>
-      <c r="C163" s="7"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="6" t="s">
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C164" s="7"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="5"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="C164" s="12"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
         <v>42</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="12">
         <v>44414</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="12">
         <v>44404</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="5"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="6" t="s">
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="5"/>
-      <c r="C169" s="7"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="C168" s="12"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
         <v>43</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="12">
         <v>44415</v>
       </c>
-      <c r="D170" s="7">
+      <c r="D170" s="12">
         <v>44404</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="6" t="s">
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C172" s="7"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="5"/>
-      <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="C172" s="12"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
         <v>44</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="12">
         <v>44416</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="12">
         <v>44400</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="5"/>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="7"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="5"/>
-      <c r="C177" s="7"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="C176" s="12"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
         <v>45</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="12">
         <v>44417</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="12">
         <v>44405</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="5"/>
-      <c r="C179" s="7"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="6" t="s">
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C180" s="7"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="5"/>
-      <c r="C181" s="7"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="C180" s="12"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="8">
         <v>46</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="12">
         <v>44418</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="12">
         <v>44406</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="C183" s="7"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="6" t="s">
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="7"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="5"/>
-      <c r="C185" s="7"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="C184" s="12"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
         <v>47</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="12">
         <v>44419</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="12">
         <v>44406</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="5"/>
-      <c r="C187" s="7"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="6" t="s">
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="10"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C188" s="7"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="5"/>
-      <c r="C189" s="7"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="C188" s="12"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="8">
         <v>48</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="12">
         <v>44420</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D190" s="12">
         <v>44406</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="5"/>
-      <c r="C191" s="7"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="6" t="s">
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C192" s="7"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="5"/>
-      <c r="C193" s="7"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="C192" s="12"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="8">
         <v>49</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="12">
         <v>44421</v>
       </c>
-      <c r="D194" s="7">
+      <c r="D194" s="12">
         <v>44406</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="5"/>
-      <c r="C195" s="7"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+      <c r="B196" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="7"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="5"/>
-      <c r="C197" s="7"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="C196" s="12"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="8">
         <v>50</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="12">
         <v>44422</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D198" s="12">
         <v>44406</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="5"/>
-      <c r="C199" s="7"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="6" t="s">
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="8"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+      <c r="B200" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C200" s="7"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="5"/>
-      <c r="C201" s="7"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="C200" s="12"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="8"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="8">
         <v>51</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="12">
         <v>44423</v>
       </c>
-      <c r="D202" s="7">
+      <c r="D202" s="12">
         <v>44407</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="5"/>
-      <c r="C203" s="7"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="6" t="s">
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="8"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+      <c r="B204" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C204" s="7"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="5"/>
-      <c r="C205" s="7"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="C204" s="12"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="8">
         <v>52</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="12">
         <v>44424</v>
       </c>
-      <c r="D206" s="7">
+      <c r="D206" s="12">
         <v>44407</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="5"/>
-      <c r="C207" s="7"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="6" t="s">
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+      <c r="B208" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C208" s="7"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="5"/>
-      <c r="C209" s="7"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="C208" s="12"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="8">
         <v>53</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="12">
         <v>44425</v>
       </c>
-      <c r="D210" s="7">
+      <c r="D210" s="12">
         <v>44407</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="5"/>
-      <c r="C211" s="7"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="6" t="s">
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+      <c r="L211" s="10"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+      <c r="B212" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C212" s="7"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="5"/>
-      <c r="C213" s="7"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="C212" s="12"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="3"/>
+      <c r="T212" s="3"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="8">
         <v>54</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="12">
         <v>44426</v>
       </c>
-      <c r="D214" s="7">
+      <c r="D214" s="12">
         <v>44408</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="5"/>
-      <c r="C215" s="7"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+      <c r="B216" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C216" s="7"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B217" s="5"/>
-      <c r="C217" s="7"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="C216" s="12"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="8">
         <v>55</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="12">
         <v>44427</v>
       </c>
-      <c r="D218" s="7">
+      <c r="D218" s="12">
         <v>44408</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="5"/>
-      <c r="C219" s="7"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C220" s="7"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="5"/>
-      <c r="C221" s="7"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="C220" s="12"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="8">
         <v>56</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="12">
         <v>44428</v>
       </c>
-      <c r="D222" s="7">
+      <c r="D222" s="12">
         <v>44408</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="5"/>
-      <c r="C223" s="7"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C224" s="7"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B225" s="5"/>
-      <c r="C225" s="7"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="C224" s="12"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="8">
         <v>57</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="12">
         <v>44429</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="12">
         <v>44408</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="5"/>
-      <c r="C227" s="7"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="8"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="8"/>
+      <c r="B228" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C228" s="7"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B229" s="5"/>
-      <c r="C229" s="7"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="C228" s="12"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="8"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="8">
         <v>58</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="12">
         <v>44430</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="12">
         <v>44408</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="5"/>
-      <c r="C231" s="7"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B232" s="6" t="s">
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="8"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+      <c r="B232" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="7"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B233" s="5"/>
-      <c r="C233" s="7"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="C232" s="12"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="8">
         <v>59</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="12">
         <v>44431</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B235" s="5"/>
-      <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="6" t="s">
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="8"/>
+      <c r="B236" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C236" s="7"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B237" s="5"/>
-      <c r="C237" s="7"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="C236" s="12"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="8">
         <v>60</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="12">
         <v>44432</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D238" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B239" s="5"/>
-      <c r="C239" s="7"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="s">
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+      <c r="B240" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="7"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B241" s="5"/>
-      <c r="C241" s="7"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="C240" s="12"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" s="8">
         <v>61</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="12">
         <v>44433</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="12">
         <v>44409</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="5"/>
-      <c r="C243" s="7"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="s">
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C244" s="7"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1695,7 +1695,9 @@
       <c r="G18" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10">
+        <v>21</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1719,7 +1721,9 @@
       <c r="G19" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10">
+        <v>11</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1745,7 +1749,9 @@
       <c r="G20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10">
+        <v>2</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-13950" windowWidth="15465" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-13950" windowWidth="13230" windowHeight="13005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -556,6 +556,27 @@
   </si>
   <si>
     <t>Configure the components of a wireless LAN access for client connectivity using GUI only such as WLAN creation, security settings, QoS profiles, and advanced WLAN settings</t>
+  </si>
+  <si>
+    <t>IP Connectivity</t>
+  </si>
+  <si>
+    <t>Interpret the components of routing table</t>
+  </si>
+  <si>
+    <t>determing how a router makes a forwarding decision by default</t>
+  </si>
+  <si>
+    <t>configure IPv4 and IPv6 static routing</t>
+  </si>
+  <si>
+    <t>Configure and verify single area OSPFc2</t>
+  </si>
+  <si>
+    <t>Describe the purpose of first hop redundency protocol</t>
+  </si>
+  <si>
+    <t>IP Services</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,14 +1652,10 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <v>84</v>
-      </c>
-      <c r="I16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1657,12 +1674,12 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="F17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1693,10 +1710,10 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1719,10 +1736,10 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="10">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1747,10 +1764,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H20" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -1773,9 +1790,11 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1805,9 +1824,11 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="H22" s="10">
+        <v>14</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -1829,9 +1850,11 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1855,9 +1878,11 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1879,9 +1904,11 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="H25" s="10">
+        <v>13</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1910,8 +1937,12 @@
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="10">
+        <v>4</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1955,9 +1986,13 @@
       <c r="C28" s="12"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10">
+        <v>52</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1978,8 +2013,12 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="10">
+        <v>13</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2008,8 +2047,12 @@
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="10">
+        <v>5</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2030,8 +2073,12 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="10">
+        <v>11</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2054,7 +2101,9 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2076,7 +2125,9 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2127,9 +2178,13 @@
       <c r="C35" s="12"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10">
+        <v>41</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -577,6 +577,63 @@
   </si>
   <si>
     <t>IP Services</t>
+  </si>
+  <si>
+    <t>Final Days</t>
+  </si>
+  <si>
+    <t>Practice Question</t>
+  </si>
+  <si>
+    <t>Reading (31) days)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>11,12,13,14</t>
+  </si>
+  <si>
+    <t>15,16,17,18</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>24,25</t>
+  </si>
+  <si>
+    <t>26,27</t>
+  </si>
+  <si>
+    <t>28,29,20,31</t>
+  </si>
+  <si>
+    <t>EXAM DATA</t>
+  </si>
+  <si>
+    <t>EXAM DATE</t>
+  </si>
+  <si>
+    <t>CCNA 200-301 is 120 questions and 120 minutes</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,8 +1212,9 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="77.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
@@ -2327,7 +2385,9 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -2403,7 +2463,9 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2425,9 +2487,13 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -2456,8 +2522,12 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="12">
+        <v>44424</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -2478,8 +2548,12 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="H47" s="12">
+        <v>44425</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -2502,8 +2576,12 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="12">
+        <v>44426</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -2524,8 +2602,12 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="12">
+        <v>44427</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -2554,8 +2636,12 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="H50" s="12">
+        <v>44428</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -2576,8 +2662,12 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+      <c r="H51" s="12">
+        <v>44429</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -2600,8 +2690,12 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="12">
+        <v>44430</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -2622,8 +2716,12 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="H53" s="12">
+        <v>44431</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -2652,8 +2750,12 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="H54" s="12">
+        <v>44432</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -2674,8 +2776,12 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="H55" s="12">
+        <v>44433</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -2698,8 +2804,12 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="H56" s="12">
+        <v>44434</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -2720,8 +2830,12 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="H57" s="12">
+        <v>44435</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -2750,8 +2864,12 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="12">
+        <v>44436</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -2771,9 +2889,15 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="12">
+        <v>44437</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -2796,7 +2920,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB305C-1DF4-4979-8195-B196BEA1B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-13950" windowWidth="13230" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="38835" yWindow="480" windowWidth="11655" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="204">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -634,12 +635,15 @@
   </si>
   <si>
     <t>CCNA 200-301 is 120 questions and 120 minutes</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1043,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1198,11 +1202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="G29" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2551,9 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10">
+        <v>107</v>
+      </c>
       <c r="H47" s="12">
         <v>44425</v>
       </c>
@@ -2575,7 +2581,9 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10">
+        <v>107</v>
+      </c>
       <c r="H48" s="12">
         <v>44426</v>
       </c>
@@ -2601,7 +2609,9 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10">
+        <v>107</v>
+      </c>
       <c r="H49" s="12">
         <v>44427</v>
       </c>
@@ -2635,7 +2645,9 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H50" s="12">
         <v>44428</v>
       </c>
@@ -2661,7 +2673,9 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10">
+        <v>100</v>
+      </c>
       <c r="H51" s="12">
         <v>44429</v>
       </c>
@@ -2689,7 +2703,9 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10">
+        <v>100</v>
+      </c>
       <c r="H52" s="12">
         <v>44430</v>
       </c>
@@ -2715,7 +2731,9 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10">
+        <v>100</v>
+      </c>
       <c r="H53" s="12">
         <v>44431</v>
       </c>
@@ -2749,7 +2767,9 @@
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H54" s="12">
         <v>44432</v>
       </c>
@@ -7444,67 +7464,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="208">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -534,9 +534,6 @@
     <t>Configure and verify Layer 2 discovery protocoles (Cisco Discovery Protocol and LLDP)</t>
   </si>
   <si>
-    <t>Flash Cards</t>
-  </si>
-  <si>
     <t>Cards</t>
   </si>
   <si>
@@ -585,48 +582,6 @@
     <t>Practice Question</t>
   </si>
   <si>
-    <t>Reading (31) days)</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>11,12,13,14</t>
-  </si>
-  <si>
-    <t>15,16,17,18</t>
-  </si>
-  <si>
-    <t>20,21</t>
-  </si>
-  <si>
-    <t>22,23</t>
-  </si>
-  <si>
-    <t>24,25</t>
-  </si>
-  <si>
-    <t>26,27</t>
-  </si>
-  <si>
-    <t>28,29,20,31</t>
-  </si>
-  <si>
     <t>EXAM DATA</t>
   </si>
   <si>
@@ -634,6 +589,66 @@
   </si>
   <si>
     <t>CCNA 200-301 is 120 questions and 120 minutes</t>
+  </si>
+  <si>
+    <t>CBT 107</t>
+  </si>
+  <si>
+    <t>CISCO 100</t>
+  </si>
+  <si>
+    <t>CBT Review</t>
+  </si>
+  <si>
+    <t>Cisco aReview</t>
+  </si>
+  <si>
+    <t>CBT 160</t>
+  </si>
+  <si>
+    <t>Cisco 150</t>
+  </si>
+  <si>
+    <t>31,30</t>
+  </si>
+  <si>
+    <t>29,28</t>
+  </si>
+  <si>
+    <t>27,26</t>
+  </si>
+  <si>
+    <t>25,24</t>
+  </si>
+  <si>
+    <t>23,22</t>
+  </si>
+  <si>
+    <t>21,20,19,18</t>
+  </si>
+  <si>
+    <t>17,16,15,14</t>
+  </si>
+  <si>
+    <t>13,12</t>
+  </si>
+  <si>
+    <t>11,10</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>3,2,1</t>
+  </si>
+  <si>
+    <t>Reading (31) days</t>
   </si>
 </sst>
 </file>
@@ -739,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -763,6 +778,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1201,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,8 +1230,8 @@
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="77.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
@@ -1242,12 +1258,10 @@
         <v>155</v>
       </c>
       <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1280,9 +1294,7 @@
         <v>104</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10">
         <v>99</v>
@@ -1848,7 +1860,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
@@ -1882,7 +1894,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="10">
         <v>14</v>
@@ -1908,7 +1920,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="10">
         <v>2</v>
@@ -1936,7 +1948,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="10">
         <v>2</v>
@@ -1962,7 +1974,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="10">
         <v>13</v>
@@ -1996,7 +2008,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="10">
         <v>4</v>
@@ -2045,7 +2057,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
@@ -2072,7 +2084,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="10">
         <v>13</v>
@@ -2106,7 +2118,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H30" s="10">
         <v>5</v>
@@ -2132,7 +2144,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H31" s="10">
         <v>11</v>
@@ -2160,7 +2172,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -2184,7 +2196,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -2237,7 +2249,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
@@ -2386,7 +2398,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2464,7 +2476,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -2488,11 +2500,11 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="10" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2521,12 +2533,12 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="12">
         <v>44424</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2547,12 +2559,14 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="H47" s="12">
         <v>44425</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2575,12 +2589,14 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="H48" s="12">
         <v>44426</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2601,12 +2617,14 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="H49" s="12">
         <v>44427</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -2635,12 +2653,14 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="H50" s="12">
         <v>44428</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -2661,12 +2681,14 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="H51" s="12">
         <v>44429</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -2689,12 +2711,14 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="H52" s="12">
         <v>44430</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -2715,12 +2739,14 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="H53" s="12">
         <v>44431</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -2749,12 +2775,14 @@
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="H54" s="12">
         <v>44432</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>195</v>
+      <c r="I54" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -2775,12 +2803,14 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="H55" s="12">
         <v>44433</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2803,12 +2833,14 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="H56" s="12">
         <v>44434</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2829,12 +2861,14 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H57" s="12">
         <v>44435</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2863,12 +2897,14 @@
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="H58" s="12">
         <v>44436</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -2890,13 +2926,13 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H59" s="12">
         <v>44437</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB305C-1DF4-4979-8195-B196BEA1B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38835" yWindow="480" windowWidth="11655" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="11655" windowHeight="1470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -637,13 +636,31 @@
     <t>CCNA 200-301 is 120 questions and 120 minutes</t>
   </si>
   <si>
-    <t>review</t>
+    <t>CBT 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBT107</t>
+  </si>
+  <si>
+    <t>CISCO 100</t>
+  </si>
+  <si>
+    <t>CBT 150</t>
+  </si>
+  <si>
+    <t>CISCO 150</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVIEW </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1202,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G29" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,8 +2568,8 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10">
-        <v>107</v>
+      <c r="G47" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H47" s="12">
         <v>44425</v>
@@ -2581,8 +2598,8 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10">
-        <v>107</v>
+      <c r="G48" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H48" s="12">
         <v>44426</v>
@@ -2609,8 +2626,8 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10">
-        <v>107</v>
+      <c r="G49" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="H49" s="12">
         <v>44427</v>
@@ -2646,7 +2663,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H50" s="12">
         <v>44428</v>
@@ -2673,8 +2690,8 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10">
-        <v>100</v>
+      <c r="G51" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="H51" s="12">
         <v>44429</v>
@@ -2703,8 +2720,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10">
-        <v>100</v>
+      <c r="G52" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="H52" s="12">
         <v>44430</v>
@@ -2731,8 +2748,8 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10">
-        <v>100</v>
+      <c r="G53" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="H53" s="12">
         <v>44431</v>
@@ -2768,7 +2785,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H54" s="12">
         <v>44432</v>
@@ -2795,7 +2812,9 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="H55" s="12">
         <v>44433</v>
       </c>
@@ -2823,7 +2842,9 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="H56" s="12">
         <v>44434</v>
       </c>
@@ -2849,7 +2870,9 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="H57" s="12">
         <v>44435</v>
       </c>
@@ -2883,7 +2906,9 @@
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="H58" s="12">
         <v>44436</v>
       </c>
@@ -7464,67 +7489,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C4072-61E8-4CB5-9B1E-F7FDF3F10A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="11655" windowHeight="1470" activeTab="1"/>
+    <workbookView xWindow="32280" yWindow="480" windowWidth="18120" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -660,7 +661,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,7 +728,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +747,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -760,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -784,6 +791,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1064,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,11 +1227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2576,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="15" t="s">
         <v>203</v>
       </c>
       <c r="H47" s="12">
@@ -2598,7 +2606,7 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="15" t="s">
         <v>203</v>
       </c>
       <c r="H48" s="12">
@@ -7489,67 +7497,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C4072-61E8-4CB5-9B1E-F7FDF3F10A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E5538-9F48-46B8-A604-AC15F60A63CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="480" windowWidth="18120" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="4290" windowWidth="22905" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="213">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Javascript</t>
-  </si>
-  <si>
-    <t>Node.js</t>
-  </si>
-  <si>
     <t>CCNA</t>
   </si>
   <si>
@@ -445,12 +439,6 @@
     <t>AWS</t>
   </si>
   <si>
-    <t>AWS Certified Cloud Practitioner</t>
-  </si>
-  <si>
-    <t>AWS Certified Developer – Associate</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -656,6 +644,27 @@
   </si>
   <si>
     <t xml:space="preserve">REVIEW </t>
+  </si>
+  <si>
+    <t>AWS Certified Developer Associate - Solutions Architect</t>
+  </si>
+  <si>
+    <t>Linux RHCSA - Red Hat</t>
+  </si>
+  <si>
+    <t>Azure Administrator Associate</t>
+  </si>
+  <si>
+    <t>Power Shell / Linux / Python</t>
+  </si>
+  <si>
+    <t>AZ 900</t>
+  </si>
+  <si>
+    <t>AWS Cloud Practitiona</t>
+  </si>
+  <si>
+    <t>AWS Cloud Practioner</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,12 +1101,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,112 +1121,133 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
+      <c r="B5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>132</v>
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>135</v>
+      <c r="A17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>141</v>
+      <c r="B18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>144</v>
+      <c r="A21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
+      <c r="B22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>7</v>
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -1251,32 +1281,32 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1292,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12">
         <v>44365</v>
@@ -1302,7 +1332,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10">
@@ -1310,7 +1340,7 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10">
@@ -1333,7 +1363,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3" s="10">
         <v>11</v>
@@ -1341,7 +1371,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L3" s="10">
         <v>8</v>
@@ -1358,14 +1388,14 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="10">
         <v>15</v>
@@ -1373,7 +1403,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L4" s="10">
         <v>2</v>
@@ -1395,7 +1425,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H5" s="10">
         <v>5</v>
@@ -1403,7 +1433,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L5" s="10">
         <v>12</v>
@@ -1422,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12">
         <v>44365</v>
@@ -1433,7 +1463,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H6" s="10">
         <v>21</v>
@@ -1441,7 +1471,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L6" s="10">
         <v>8</v>
@@ -1463,7 +1493,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H7" s="10">
         <v>3</v>
@@ -1471,7 +1501,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L7" s="10">
         <v>1</v>
@@ -1488,14 +1518,14 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H8" s="10">
         <v>14</v>
@@ -1503,7 +1533,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L8" s="10">
         <v>13</v>
@@ -1525,7 +1555,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="10">
         <v>4</v>
@@ -1533,7 +1563,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="3"/>
@@ -1550,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="12">
         <v>44365</v>
@@ -1561,7 +1591,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="10">
         <v>3</v>
@@ -1569,7 +1599,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="3"/>
@@ -1589,7 +1619,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H11" s="10">
         <v>5</v>
@@ -1597,7 +1627,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="3"/>
@@ -1612,14 +1642,14 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H12" s="10">
         <v>3</v>
@@ -1627,7 +1657,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="3"/>
@@ -1647,7 +1677,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" s="10">
         <v>9</v>
@@ -1655,7 +1685,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="3"/>
@@ -1672,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="12">
         <v>44366</v>
@@ -1683,7 +1713,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="10">
         <v>3</v>
@@ -1691,7 +1721,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="3"/>
@@ -1711,7 +1741,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H15" s="10">
         <v>8</v>
@@ -1719,7 +1749,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="3"/>
@@ -1734,7 +1764,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1762,7 +1792,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10">
@@ -1786,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="12">
         <v>44367</v>
@@ -1797,7 +1827,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H18" s="10">
         <v>15</v>
@@ -1823,7 +1853,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H19" s="10">
         <v>21</v>
@@ -1844,14 +1874,14 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H20" s="10">
         <v>11</v>
@@ -1877,7 +1907,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H21" s="10">
         <v>2</v>
@@ -1900,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="12">
         <v>44368</v>
@@ -1911,7 +1941,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="10">
         <v>14</v>
@@ -1937,7 +1967,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H23" s="10">
         <v>2</v>
@@ -1958,14 +1988,14 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H24" s="10">
         <v>2</v>
@@ -1991,7 +2021,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H25" s="10">
         <v>13</v>
@@ -2014,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="12">
         <v>44369</v>
@@ -2025,7 +2055,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="10">
         <v>4</v>
@@ -2068,13 +2098,13 @@
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
@@ -2101,7 +2131,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H29" s="10">
         <v>13</v>
@@ -2124,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12">
         <v>44370</v>
@@ -2135,7 +2165,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H30" s="10">
         <v>5</v>
@@ -2161,7 +2191,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H31" s="10">
         <v>11</v>
@@ -2182,14 +2212,14 @@
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -2213,7 +2243,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -2234,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="12">
         <v>44371</v>
@@ -2266,7 +2296,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
@@ -2288,7 +2318,7 @@
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="10"/>
@@ -2336,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="12">
         <v>44372</v>
@@ -2386,7 +2416,7 @@
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="10"/>
@@ -2415,7 +2445,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2436,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" s="12">
         <v>44373</v>
@@ -2486,14 +2516,14 @@
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -2517,11 +2547,11 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2540,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="12">
         <v>44374</v>
@@ -2555,7 +2585,7 @@
         <v>44424</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2577,13 +2607,13 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H47" s="12">
         <v>44425</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2600,20 +2630,20 @@
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H48" s="12">
         <v>44426</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2635,13 +2665,13 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H49" s="12">
         <v>44427</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -2660,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="12">
         <v>44384</v>
@@ -2671,13 +2701,13 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H50" s="12">
         <v>44428</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -2699,13 +2729,13 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H51" s="12">
         <v>44429</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -2722,20 +2752,20 @@
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H52" s="12">
         <v>44430</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -2757,13 +2787,13 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H53" s="12">
         <v>44431</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -2782,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="12">
         <v>44385</v>
@@ -2793,13 +2823,13 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H54" s="12">
         <v>44432</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -2821,13 +2851,13 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H55" s="12">
         <v>44433</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2844,20 +2874,20 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H56" s="12">
         <v>44434</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2879,13 +2909,13 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H57" s="12">
         <v>44435</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2904,7 +2934,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="12">
         <v>44386</v>
@@ -2915,13 +2945,13 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H58" s="12">
         <v>44436</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -2943,13 +2973,13 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H59" s="12">
         <v>44437</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2966,7 +2996,7 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="10"/>
@@ -3014,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" s="12">
         <v>44387</v>
@@ -3064,7 +3094,7 @@
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="10"/>
@@ -3112,7 +3142,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" s="12">
         <v>44388</v>
@@ -3162,7 +3192,7 @@
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
@@ -3210,7 +3240,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="12">
         <v>44389</v>
@@ -3260,7 +3290,7 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
@@ -3308,7 +3338,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74" s="12">
         <v>44390</v>
@@ -3358,7 +3388,7 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="10"/>
@@ -3406,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C78" s="12">
         <v>44391</v>
@@ -3456,7 +3486,7 @@
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="10"/>
@@ -3504,7 +3534,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="12">
         <v>44392</v>
@@ -3554,7 +3584,7 @@
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="10"/>
@@ -3602,7 +3632,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86" s="12">
         <v>44393</v>
@@ -3652,7 +3682,7 @@
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="10"/>
@@ -3700,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90" s="12">
         <v>44394</v>
@@ -3750,7 +3780,7 @@
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="10"/>
@@ -3798,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="12">
         <v>44395</v>
@@ -3848,7 +3878,7 @@
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="10"/>
@@ -3896,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C98" s="12">
         <v>44396</v>
@@ -3946,7 +3976,7 @@
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="10"/>
@@ -3994,7 +4024,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C102" s="12">
         <v>44397</v>
@@ -4044,7 +4074,7 @@
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="10"/>
@@ -4092,7 +4122,7 @@
         <v>27</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C106" s="12">
         <v>44398</v>
@@ -4142,7 +4172,7 @@
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="10"/>
@@ -4190,7 +4220,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C110" s="12">
         <v>44399</v>
@@ -4240,7 +4270,7 @@
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="10"/>
@@ -4288,7 +4318,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C114" s="12">
         <v>44400</v>
@@ -4338,7 +4368,7 @@
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
@@ -4386,7 +4416,7 @@
         <v>30</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" s="12">
         <v>44401</v>
@@ -4436,7 +4466,7 @@
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="10"/>
@@ -4484,7 +4514,7 @@
         <v>31</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C122" s="12">
         <v>44402</v>
@@ -4534,7 +4564,7 @@
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="10"/>
@@ -4582,7 +4612,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C126" s="12">
         <v>44403</v>
@@ -4632,7 +4662,7 @@
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="10"/>
@@ -4680,7 +4710,7 @@
         <v>33</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C130" s="12">
         <v>44405</v>
@@ -4730,7 +4760,7 @@
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="10"/>
@@ -4778,7 +4808,7 @@
         <v>34</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C134" s="12">
         <v>44406</v>
@@ -4828,7 +4858,7 @@
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="10"/>
@@ -4876,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C138" s="12">
         <v>44407</v>
@@ -4926,7 +4956,7 @@
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="10"/>
@@ -4974,7 +5004,7 @@
         <v>36</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C142" s="12">
         <v>44408</v>
@@ -5024,7 +5054,7 @@
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="10"/>
@@ -5072,7 +5102,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C146" s="12">
         <v>44409</v>
@@ -5122,7 +5152,7 @@
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="10"/>
@@ -5170,7 +5200,7 @@
         <v>38</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C150" s="12">
         <v>44410</v>
@@ -5220,7 +5250,7 @@
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="10"/>
@@ -5268,7 +5298,7 @@
         <v>39</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C154" s="12">
         <v>44411</v>
@@ -5318,7 +5348,7 @@
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="10"/>
@@ -5366,7 +5396,7 @@
         <v>40</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C158" s="12">
         <v>44412</v>
@@ -5416,7 +5446,7 @@
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="10"/>
@@ -5464,7 +5494,7 @@
         <v>41</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C162" s="12">
         <v>44413</v>
@@ -5514,7 +5544,7 @@
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C164" s="12"/>
       <c r="D164" s="10"/>
@@ -5562,7 +5592,7 @@
         <v>42</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C166" s="12">
         <v>44414</v>
@@ -5612,7 +5642,7 @@
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C168" s="12"/>
       <c r="D168" s="10"/>
@@ -5660,7 +5690,7 @@
         <v>43</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C170" s="12">
         <v>44415</v>
@@ -5710,7 +5740,7 @@
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C172" s="12"/>
       <c r="D172" s="10"/>
@@ -5758,7 +5788,7 @@
         <v>44</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C174" s="12">
         <v>44416</v>
@@ -5808,7 +5838,7 @@
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C176" s="12"/>
       <c r="D176" s="10"/>
@@ -5856,7 +5886,7 @@
         <v>45</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C178" s="12">
         <v>44417</v>
@@ -5906,7 +5936,7 @@
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="10"/>
@@ -5954,7 +5984,7 @@
         <v>46</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C182" s="12">
         <v>44418</v>
@@ -6004,7 +6034,7 @@
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C184" s="12"/>
       <c r="D184" s="10"/>
@@ -6052,7 +6082,7 @@
         <v>47</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C186" s="12">
         <v>44419</v>
@@ -6102,7 +6132,7 @@
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C188" s="12"/>
       <c r="D188" s="10"/>
@@ -6150,7 +6180,7 @@
         <v>48</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C190" s="12">
         <v>44420</v>
@@ -6200,7 +6230,7 @@
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C192" s="12"/>
       <c r="D192" s="10"/>
@@ -6248,7 +6278,7 @@
         <v>49</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C194" s="12">
         <v>44421</v>
@@ -6298,7 +6328,7 @@
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C196" s="12"/>
       <c r="D196" s="10"/>
@@ -6346,7 +6376,7 @@
         <v>50</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C198" s="12">
         <v>44422</v>
@@ -6396,7 +6426,7 @@
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C200" s="12"/>
       <c r="D200" s="10"/>
@@ -6444,7 +6474,7 @@
         <v>51</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C202" s="12">
         <v>44423</v>
@@ -6494,7 +6524,7 @@
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C204" s="12"/>
       <c r="D204" s="10"/>
@@ -6542,7 +6572,7 @@
         <v>52</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C206" s="12">
         <v>44424</v>
@@ -6592,7 +6622,7 @@
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C208" s="12"/>
       <c r="D208" s="10"/>
@@ -6640,7 +6670,7 @@
         <v>53</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C210" s="12">
         <v>44425</v>
@@ -6690,7 +6720,7 @@
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C212" s="12"/>
       <c r="D212" s="10"/>
@@ -6738,7 +6768,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C214" s="12">
         <v>44426</v>
@@ -6788,7 +6818,7 @@
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="10"/>
@@ -6836,7 +6866,7 @@
         <v>55</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C218" s="12">
         <v>44427</v>
@@ -6886,7 +6916,7 @@
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="10"/>
@@ -6934,7 +6964,7 @@
         <v>56</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C222" s="12">
         <v>44428</v>
@@ -6984,7 +7014,7 @@
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C224" s="12"/>
       <c r="D224" s="10"/>
@@ -7032,7 +7062,7 @@
         <v>57</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C226" s="12">
         <v>44429</v>
@@ -7082,7 +7112,7 @@
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C228" s="12"/>
       <c r="D228" s="10"/>
@@ -7130,7 +7160,7 @@
         <v>58</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C230" s="12">
         <v>44430</v>
@@ -7180,7 +7210,7 @@
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C232" s="12"/>
       <c r="D232" s="10"/>
@@ -7228,7 +7258,7 @@
         <v>59</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C234" s="12">
         <v>44431</v>
@@ -7278,7 +7308,7 @@
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C236" s="12"/>
       <c r="D236" s="10"/>
@@ -7326,7 +7356,7 @@
         <v>60</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C238" s="12">
         <v>44432</v>
@@ -7376,7 +7406,7 @@
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="10"/>
@@ -7424,7 +7454,7 @@
         <v>61</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C242" s="12">
         <v>44433</v>
@@ -7474,7 +7504,7 @@
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="5"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E5538-9F48-46B8-A604-AC15F60A63CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CE822-B678-4DFA-A06E-A02992A4FBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="4290" windowWidth="22905" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="975" windowWidth="14175" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="220">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -665,6 +665,27 @@
   </si>
   <si>
     <t>AWS Cloud Practioner</t>
+  </si>
+  <si>
+    <t>Renew cisco early 2024</t>
+  </si>
+  <si>
+    <t>Azure 2025</t>
+  </si>
+  <si>
+    <t>AWS 2026</t>
+  </si>
+  <si>
+    <t>Cisco 2027</t>
+  </si>
+  <si>
+    <t>Azure 2028</t>
+  </si>
+  <si>
+    <t>AWS 2029</t>
+  </si>
+  <si>
+    <t>Cisco 2030</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,6 +1269,41 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CE822-B678-4DFA-A06E-A02992A4FBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="975" windowWidth="14175" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="975" windowWidth="14175" windowHeight="18900"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -691,7 +690,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -822,6 +821,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,11 +1102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,12 +1145,19 @@
       <c r="B4" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>44438</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44459</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>208</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView topLeftCell="C28" workbookViewId="0">
@@ -7583,67 +7590,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
-    <sheet name="CCNA" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -685,6 +686,54 @@
   </si>
   <si>
     <t>Cisco 2030</t>
+  </si>
+  <si>
+    <t>Azure App Services / Advanced Virtual Networking with Azure</t>
+  </si>
+  <si>
+    <t>Secure Identities with Azure / Implement and Manage Azure Virtual Networking</t>
+  </si>
+  <si>
+    <t>Name Resolution Configuration with Azure / Secure Azure Virtual Networks / Manage Azure Active Directory Objects</t>
+  </si>
+  <si>
+    <t>100 Microsoft Practice Questions</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>106 Microsoft Practice Questions</t>
+  </si>
+  <si>
+    <t>50 Microsoft Practice Questions</t>
+  </si>
+  <si>
+    <t>56 Microsoft Practice Questions</t>
+  </si>
+  <si>
+    <t>74 CBT practice Questions (Manage / Implement)</t>
+  </si>
+  <si>
+    <t>98 CBT Practice Questions (Deploy, Configure, Monitor)</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1155,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,8 +1205,11 @@
       <c r="B5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="1">
         <v>44460</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44535</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,6 +1372,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="16">
+        <v>44518</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="16">
+        <v>44520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="16">
+        <v>44521</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="16">
+        <v>44522</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="16">
+        <v>44526</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="16">
+        <v>44527</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="16">
+        <v>44528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>44529</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>44530</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>44531</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>44532</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>44533</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>44534</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>44535</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="264">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -649,9 +649,6 @@
     <t>AWS Certified Developer Associate - Solutions Architect</t>
   </si>
   <si>
-    <t>Linux RHCSA - Red Hat</t>
-  </si>
-  <si>
     <t>Azure Administrator Associate</t>
   </si>
   <si>
@@ -667,12 +664,6 @@
     <t>AWS Cloud Practioner</t>
   </si>
   <si>
-    <t>Renew cisco early 2024</t>
-  </si>
-  <si>
-    <t>Azure 2025</t>
-  </si>
-  <si>
     <t>AWS 2026</t>
   </si>
   <si>
@@ -688,52 +679,145 @@
     <t>Cisco 2030</t>
   </si>
   <si>
-    <t>Azure App Services / Advanced Virtual Networking with Azure</t>
-  </si>
-  <si>
-    <t>Secure Identities with Azure / Implement and Manage Azure Virtual Networking</t>
-  </si>
-  <si>
-    <t>Name Resolution Configuration with Azure / Secure Azure Virtual Networks / Manage Azure Active Directory Objects</t>
-  </si>
-  <si>
-    <t>100 Microsoft Practice Questions</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>106 Microsoft Practice Questions</t>
-  </si>
-  <si>
-    <t>50 Microsoft Practice Questions</t>
-  </si>
-  <si>
-    <t>56 Microsoft Practice Questions</t>
-  </si>
-  <si>
-    <t>74 CBT practice Questions (Manage / Implement)</t>
-  </si>
-  <si>
-    <t>98 CBT Practice Questions (Deploy, Configure, Monitor)</t>
+    <t>56/206</t>
+  </si>
+  <si>
+    <t>106/206</t>
+  </si>
+  <si>
+    <t>156/206</t>
+  </si>
+  <si>
+    <t>206/206</t>
+  </si>
+  <si>
+    <t>100/206</t>
+  </si>
+  <si>
+    <t>100/178</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>CBT</t>
+  </si>
+  <si>
+    <t>178/178</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Renew before June of that year</t>
+  </si>
+  <si>
+    <t>cisco 2024 - DevNet</t>
+  </si>
+  <si>
+    <t>Azure 2025 - AZ400 DevOps</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Professional Scrum Master l</t>
+  </si>
+  <si>
+    <t>Professional Scrum Master ll</t>
+  </si>
+  <si>
+    <t>Professional Scrum Master lll</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Codecademy</t>
+  </si>
+  <si>
+    <t>Data Scientist Career Path</t>
+  </si>
+  <si>
+    <t>Full-Stack Engineer</t>
+  </si>
+  <si>
+    <t>TryHackMe</t>
+  </si>
+  <si>
+    <t>Pre Security</t>
+  </si>
+  <si>
+    <t>Cyber Defense</t>
+  </si>
+  <si>
+    <t>Offesnive PenTesting</t>
+  </si>
+  <si>
+    <t>RedHat</t>
+  </si>
+  <si>
+    <t>Red Hat Enterprise Linux Technical Overview (RH024)</t>
+  </si>
+  <si>
+    <t>Red Hat System Administration l</t>
+  </si>
+  <si>
+    <t>https://www.redhat.com/en/resources/certified-engineer-skills-path-brief</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Kubernetes and Cloud Native Associate (KCNA)</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io/training/</t>
+  </si>
+  <si>
+    <t>Cerified Kubernetes Administrator (CKA)</t>
+  </si>
+  <si>
+    <t>Certified Kubernetes Security Specialist (CKS)</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/certification#certification_paths</t>
+  </si>
+  <si>
+    <t>Google Cloud Digital Leader</t>
+  </si>
+  <si>
+    <t>Google Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Professional Scum Master l</t>
+  </si>
+  <si>
+    <t>Red Hat System Administrator l (RHCSA)</t>
+  </si>
+  <si>
+    <t>https://www.scrum.org/</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/certifications/browse/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/training/</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/training-events/training-certifications/certifications.html</t>
+  </si>
+  <si>
+    <t>https://www.codecademy.com/</t>
+  </si>
+  <si>
+    <t>https://tryhackme.com/</t>
+  </si>
+  <si>
+    <t>Certified Kubernetes Administrator (CKA)</t>
   </si>
 </sst>
 </file>
@@ -845,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,7 +954,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1152,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,20 +1251,26 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1189,10 +1280,13 @@
       <c r="D3" s="1">
         <v>44437</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>44438</v>
@@ -1200,388 +1294,516 @@
       <c r="D4" s="1">
         <v>44459</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1">
         <v>44460</v>
       </c>
       <c r="D5" s="1">
-        <v>44535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44546</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44547</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44562</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44563</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44591</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44619</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44621</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44634</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44648</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44662</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44697</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>259</v>
+      </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>219</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" location="certification_paths"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A42" r:id="rId4"/>
+    <hyperlink ref="A45" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
+    <hyperlink ref="A49" r:id="rId8"/>
+    <hyperlink ref="A52" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>44536</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>44537</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>44538</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>44539</v>
+      </c>
+      <c r="B5" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="16">
-        <v>44518</v>
-      </c>
-      <c r="C1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>44540</v>
+      </c>
+      <c r="B6" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="16">
-        <v>44519</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>44541</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>44542</v>
+      </c>
+      <c r="B8" t="s">
         <v>222</v>
-      </c>
-      <c r="B3" s="16">
-        <v>44520</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="16">
-        <v>44521</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44522</v>
-      </c>
-      <c r="C5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="16">
-        <v>44523</v>
-      </c>
-      <c r="C6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44524</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44525</v>
       </c>
       <c r="C8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44526</v>
+      <c r="A9" s="16">
+        <v>44543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
       </c>
       <c r="C9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>44544</v>
+      </c>
+      <c r="B10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="16">
-        <v>44527</v>
-      </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="16">
-        <v>44528</v>
+      <c r="A11" s="16">
+        <v>44545</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>44529</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>44530</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>44531</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>44532</v>
-      </c>
-      <c r="C15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>44533</v>
-      </c>
-      <c r="C16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>44534</v>
-      </c>
-      <c r="C17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>44535</v>
-      </c>
-      <c r="C18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+      <c r="A12" s="16">
+        <v>44546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="975" windowWidth="14175" windowHeight="18900"/>
+    <workbookView xWindow="7968" yWindow="972" windowWidth="14172" windowHeight="18900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="263">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -679,15 +679,6 @@
     <t>Cisco 2030</t>
   </si>
   <si>
-    <t>56/206</t>
-  </si>
-  <si>
-    <t>106/206</t>
-  </si>
-  <si>
-    <t>156/206</t>
-  </si>
-  <si>
     <t>206/206</t>
   </si>
   <si>
@@ -818,6 +809,12 @@
   </si>
   <si>
     <t>Certified Kubernetes Administrator (CKA)</t>
+  </si>
+  <si>
+    <t>50/206</t>
+  </si>
+  <si>
+    <t>150/206</t>
   </si>
 </sst>
 </file>
@@ -1239,19 +1236,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -1259,18 +1256,18 @@
         <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1281,10 +1278,10 @@
         <v>44437</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>209</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>207</v>
       </c>
@@ -1312,9 +1309,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1">
         <v>44547</v>
@@ -1326,7 +1323,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>211</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>206</v>
       </c>
@@ -1354,9 +1351,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1">
         <v>44621</v>
@@ -1365,9 +1362,9 @@
         <v>44633</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1">
         <v>44634</v>
@@ -1376,9 +1373,9 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1">
         <v>44648</v>
@@ -1387,9 +1384,9 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="1">
         <v>44662</v>
@@ -1398,9 +1395,9 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1">
         <v>44682</v>
@@ -1409,9 +1406,9 @@
         <v>44696</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1">
         <v>44697</v>
@@ -1420,12 +1417,12 @@
         <v>44710</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -1433,216 +1430,216 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1666,39 +1663,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44536</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44537</v>
       </c>
@@ -1706,98 +1703,98 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44538</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44539</v>
       </c>
       <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
         <v>220</v>
       </c>
-      <c r="C5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44540</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44541</v>
       </c>
       <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>44542</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>44543</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44544</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44545</v>
       </c>
       <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
         <v>220</v>
       </c>
-      <c r="C11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>44546</v>
       </c>
@@ -1818,22 +1815,22 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="82.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="82.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="77.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="77.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
@@ -1939,7 +1936,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -1971,7 +1968,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="13"/>
       <c r="C5" s="10"/>
@@ -2001,7 +1998,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -2039,7 +2036,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="13"/>
       <c r="C7" s="10"/>
@@ -2069,7 +2066,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
         <v>59</v>
@@ -2101,7 +2098,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10"/>
@@ -2129,7 +2126,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -2165,7 +2162,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
@@ -2193,7 +2190,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="13" t="s">
         <v>61</v>
@@ -2223,7 +2220,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10"/>
@@ -2251,7 +2248,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -2287,7 +2284,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
@@ -2315,7 +2312,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="13" t="s">
         <v>63</v>
@@ -2339,7 +2336,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
@@ -2365,7 +2362,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -2399,7 +2396,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
@@ -2425,7 +2422,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="13" t="s">
         <v>64</v>
@@ -2453,7 +2450,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
@@ -2479,7 +2476,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>6</v>
       </c>
@@ -2513,7 +2510,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
@@ -2539,7 +2536,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="13" t="s">
         <v>66</v>
@@ -2567,7 +2564,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
@@ -2593,7 +2590,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>7</v>
       </c>
@@ -2627,7 +2624,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -2649,7 +2646,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="13" t="s">
         <v>68</v>
@@ -2677,7 +2674,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -2703,7 +2700,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>8</v>
       </c>
@@ -2737,7 +2734,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -2763,7 +2760,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="13" t="s">
         <v>69</v>
@@ -2789,7 +2786,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -2813,7 +2810,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>9</v>
       </c>
@@ -2843,7 +2840,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -2869,7 +2866,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="13" t="s">
         <v>70</v>
@@ -2893,7 +2890,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -2915,7 +2912,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>10</v>
       </c>
@@ -2945,7 +2942,7 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12"/>
@@ -2967,7 +2964,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
         <v>72</v>
@@ -2991,7 +2988,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="13"/>
       <c r="C41" s="12"/>
@@ -3015,7 +3012,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>11</v>
       </c>
@@ -3045,7 +3042,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="13"/>
       <c r="C43" s="12"/>
@@ -3067,7 +3064,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
         <v>73</v>
@@ -3093,7 +3090,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="13"/>
       <c r="C45" s="12"/>
@@ -3119,7 +3116,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>12</v>
       </c>
@@ -3153,7 +3150,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="13"/>
       <c r="C47" s="12"/>
@@ -3181,7 +3178,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="13" t="s">
         <v>74</v>
@@ -3211,7 +3208,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="13"/>
       <c r="C49" s="12"/>
@@ -3239,7 +3236,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>13</v>
       </c>
@@ -3275,7 +3272,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
       <c r="C51" s="12"/>
@@ -3303,7 +3300,7 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="13" t="s">
         <v>76</v>
@@ -3333,7 +3330,7 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="13"/>
       <c r="C53" s="12"/>
@@ -3361,7 +3358,7 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -3397,7 +3394,7 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="13"/>
       <c r="C55" s="12"/>
@@ -3425,7 +3422,7 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="13" t="s">
         <v>66</v>
@@ -3455,7 +3452,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="13"/>
       <c r="C57" s="12"/>
@@ -3483,7 +3480,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>15</v>
       </c>
@@ -3519,7 +3516,7 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="13"/>
       <c r="C59" s="12"/>
@@ -3547,7 +3544,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="13" t="s">
         <v>79</v>
@@ -3571,7 +3568,7 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="13"/>
       <c r="C61" s="12"/>
@@ -3593,7 +3590,7 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>16</v>
       </c>
@@ -3623,7 +3620,7 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="13"/>
       <c r="C63" s="12"/>
@@ -3645,7 +3642,7 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="13" t="s">
         <v>80</v>
@@ -3669,7 +3666,7 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="13"/>
       <c r="C65" s="12"/>
@@ -3691,7 +3688,7 @@
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>17</v>
       </c>
@@ -3721,7 +3718,7 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="13"/>
       <c r="C67" s="12"/>
@@ -3743,7 +3740,7 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="13" t="s">
         <v>81</v>
@@ -3767,7 +3764,7 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="13"/>
       <c r="C69" s="12"/>
@@ -3789,7 +3786,7 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>18</v>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="13"/>
       <c r="C71" s="12"/>
@@ -3841,7 +3838,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="13" t="s">
         <v>83</v>
@@ -3865,7 +3862,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="13"/>
       <c r="C73" s="12"/>
@@ -3887,7 +3884,7 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>19</v>
       </c>
@@ -3917,7 +3914,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="13"/>
       <c r="C75" s="12"/>
@@ -3939,7 +3936,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="13" t="s">
         <v>84</v>
@@ -3963,7 +3960,7 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="13"/>
       <c r="C77" s="12"/>
@@ -3985,7 +3982,7 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>20</v>
       </c>
@@ -4015,7 +4012,7 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="13"/>
       <c r="C79" s="12"/>
@@ -4037,7 +4034,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="13" t="s">
         <v>85</v>
@@ -4061,7 +4058,7 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="13"/>
       <c r="C81" s="12"/>
@@ -4083,7 +4080,7 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>21</v>
       </c>
@@ -4113,7 +4110,7 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="13"/>
       <c r="C83" s="12"/>
@@ -4135,7 +4132,7 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="13" t="s">
         <v>86</v>
@@ -4159,7 +4156,7 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="13"/>
       <c r="C85" s="12"/>
@@ -4181,7 +4178,7 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>22</v>
       </c>
@@ -4211,7 +4208,7 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="13"/>
       <c r="C87" s="12"/>
@@ -4233,7 +4230,7 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="13" t="s">
         <v>87</v>
@@ -4257,7 +4254,7 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="13"/>
       <c r="C89" s="12"/>
@@ -4279,7 +4276,7 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>23</v>
       </c>
@@ -4309,7 +4306,7 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="13"/>
       <c r="C91" s="12"/>
@@ -4331,7 +4328,7 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="13" t="s">
         <v>88</v>
@@ -4355,7 +4352,7 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="13"/>
       <c r="C93" s="12"/>
@@ -4377,7 +4374,7 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>24</v>
       </c>
@@ -4407,7 +4404,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="13"/>
       <c r="C95" s="12"/>
@@ -4429,7 +4426,7 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="13" t="s">
         <v>90</v>
@@ -4453,7 +4450,7 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="13"/>
       <c r="C97" s="12"/>
@@ -4475,7 +4472,7 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>25</v>
       </c>
@@ -4505,7 +4502,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="13"/>
       <c r="C99" s="12"/>
@@ -4527,7 +4524,7 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="13" t="s">
         <v>91</v>
@@ -4551,7 +4548,7 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="13"/>
       <c r="C101" s="12"/>
@@ -4573,7 +4570,7 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>26</v>
       </c>
@@ -4603,7 +4600,7 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="13"/>
       <c r="C103" s="12"/>
@@ -4625,7 +4622,7 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="13" t="s">
         <v>92</v>
@@ -4649,7 +4646,7 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="13"/>
       <c r="C105" s="12"/>
@@ -4671,7 +4668,7 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>27</v>
       </c>
@@ -4701,7 +4698,7 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="13"/>
       <c r="C107" s="12"/>
@@ -4723,7 +4720,7 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="13" t="s">
         <v>93</v>
@@ -4747,7 +4744,7 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="13"/>
       <c r="C109" s="12"/>
@@ -4769,7 +4766,7 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>28</v>
       </c>
@@ -4799,7 +4796,7 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="13"/>
       <c r="C111" s="12"/>
@@ -4821,7 +4818,7 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="13" t="s">
         <v>94</v>
@@ -4845,7 +4842,7 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="13"/>
       <c r="C113" s="12"/>
@@ -4867,7 +4864,7 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>29</v>
       </c>
@@ -4897,7 +4894,7 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="13"/>
       <c r="C115" s="12"/>
@@ -4919,7 +4916,7 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="13" t="s">
         <v>96</v>
@@ -4943,7 +4940,7 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="13"/>
       <c r="C117" s="12"/>
@@ -4965,7 +4962,7 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>30</v>
       </c>
@@ -4995,7 +4992,7 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="13"/>
       <c r="C119" s="12"/>
@@ -5017,7 +5014,7 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="13" t="s">
         <v>97</v>
@@ -5041,7 +5038,7 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="13"/>
       <c r="C121" s="12"/>
@@ -5063,7 +5060,7 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>31</v>
       </c>
@@ -5093,7 +5090,7 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="13"/>
       <c r="C123" s="12"/>
@@ -5115,7 +5112,7 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="13" t="s">
         <v>98</v>
@@ -5139,7 +5136,7 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="13"/>
       <c r="C125" s="12"/>
@@ -5161,7 +5158,7 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>32</v>
       </c>
@@ -5191,7 +5188,7 @@
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="13"/>
       <c r="C127" s="12"/>
@@ -5213,7 +5210,7 @@
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="13" t="s">
         <v>99</v>
@@ -5237,7 +5234,7 @@
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="13"/>
       <c r="C129" s="12"/>
@@ -5259,7 +5256,7 @@
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>33</v>
       </c>
@@ -5289,7 +5286,7 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="13"/>
       <c r="C131" s="12"/>
@@ -5311,7 +5308,7 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="13" t="s">
         <v>100</v>
@@ -5335,7 +5332,7 @@
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="13"/>
       <c r="C133" s="12"/>
@@ -5357,7 +5354,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>34</v>
       </c>
@@ -5387,7 +5384,7 @@
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="13"/>
       <c r="C135" s="12"/>
@@ -5409,7 +5406,7 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="13" t="s">
         <v>64</v>
@@ -5433,7 +5430,7 @@
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="13"/>
       <c r="C137" s="12"/>
@@ -5455,7 +5452,7 @@
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>35</v>
       </c>
@@ -5485,7 +5482,7 @@
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="13"/>
       <c r="C139" s="12"/>
@@ -5507,7 +5504,7 @@
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="13" t="s">
         <v>101</v>
@@ -5531,7 +5528,7 @@
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="13"/>
       <c r="C141" s="12"/>
@@ -5553,7 +5550,7 @@
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>36</v>
       </c>
@@ -5583,7 +5580,7 @@
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="13"/>
       <c r="C143" s="12"/>
@@ -5605,7 +5602,7 @@
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="13" t="s">
         <v>102</v>
@@ -5629,7 +5626,7 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="13"/>
       <c r="C145" s="12"/>
@@ -5651,7 +5648,7 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>37</v>
       </c>
@@ -5681,7 +5678,7 @@
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="13"/>
       <c r="C147" s="12"/>
@@ -5703,7 +5700,7 @@
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="13" t="s">
         <v>103</v>
@@ -5727,7 +5724,7 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="13"/>
       <c r="C149" s="12"/>
@@ -5749,7 +5746,7 @@
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>38</v>
       </c>
@@ -5779,7 +5776,7 @@
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="13"/>
       <c r="C151" s="12"/>
@@ -5801,7 +5798,7 @@
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="13" t="s">
         <v>104</v>
@@ -5825,7 +5822,7 @@
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="13"/>
       <c r="C153" s="12"/>
@@ -5847,7 +5844,7 @@
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>39</v>
       </c>
@@ -5877,7 +5874,7 @@
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="13"/>
       <c r="C155" s="12"/>
@@ -5899,7 +5896,7 @@
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="13" t="s">
         <v>105</v>
@@ -5923,7 +5920,7 @@
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="13"/>
       <c r="C157" s="12"/>
@@ -5945,7 +5942,7 @@
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>40</v>
       </c>
@@ -5975,7 +5972,7 @@
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="13"/>
       <c r="C159" s="12"/>
@@ -5997,7 +5994,7 @@
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="13" t="s">
         <v>106</v>
@@ -6021,7 +6018,7 @@
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="13"/>
       <c r="C161" s="12"/>
@@ -6043,7 +6040,7 @@
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>41</v>
       </c>
@@ -6073,7 +6070,7 @@
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="13"/>
       <c r="C163" s="12"/>
@@ -6095,7 +6092,7 @@
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="13" t="s">
         <v>107</v>
@@ -6119,7 +6116,7 @@
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="13"/>
       <c r="C165" s="12"/>
@@ -6141,7 +6138,7 @@
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>42</v>
       </c>
@@ -6171,7 +6168,7 @@
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="13"/>
       <c r="C167" s="12"/>
@@ -6193,7 +6190,7 @@
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="13" t="s">
         <v>108</v>
@@ -6217,7 +6214,7 @@
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="13"/>
       <c r="C169" s="12"/>
@@ -6239,7 +6236,7 @@
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>43</v>
       </c>
@@ -6269,7 +6266,7 @@
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="13"/>
       <c r="C171" s="12"/>
@@ -6291,7 +6288,7 @@
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="13" t="s">
         <v>109</v>
@@ -6315,7 +6312,7 @@
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="13"/>
       <c r="C173" s="12"/>
@@ -6337,7 +6334,7 @@
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>44</v>
       </c>
@@ -6367,7 +6364,7 @@
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="13"/>
       <c r="C175" s="12"/>
@@ -6389,7 +6386,7 @@
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="13" t="s">
         <v>110</v>
@@ -6413,7 +6410,7 @@
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="13"/>
       <c r="C177" s="12"/>
@@ -6435,7 +6432,7 @@
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>45</v>
       </c>
@@ -6465,7 +6462,7 @@
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="13"/>
       <c r="C179" s="12"/>
@@ -6487,7 +6484,7 @@
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="13" t="s">
         <v>111</v>
@@ -6511,7 +6508,7 @@
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="13"/>
       <c r="C181" s="12"/>
@@ -6533,7 +6530,7 @@
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>46</v>
       </c>
@@ -6563,7 +6560,7 @@
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="13"/>
       <c r="C183" s="12"/>
@@ -6585,7 +6582,7 @@
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="13" t="s">
         <v>112</v>
@@ -6609,7 +6606,7 @@
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="13"/>
       <c r="C185" s="12"/>
@@ -6631,7 +6628,7 @@
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>47</v>
       </c>
@@ -6661,7 +6658,7 @@
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="13"/>
       <c r="C187" s="12"/>
@@ -6683,7 +6680,7 @@
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="13" t="s">
         <v>113</v>
@@ -6707,7 +6704,7 @@
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="13"/>
       <c r="C189" s="12"/>
@@ -6729,7 +6726,7 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>48</v>
       </c>
@@ -6759,7 +6756,7 @@
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="13"/>
       <c r="C191" s="12"/>
@@ -6781,7 +6778,7 @@
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="13" t="s">
         <v>114</v>
@@ -6805,7 +6802,7 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="13"/>
       <c r="C193" s="12"/>
@@ -6827,7 +6824,7 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>49</v>
       </c>
@@ -6857,7 +6854,7 @@
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="13"/>
       <c r="C195" s="12"/>
@@ -6879,7 +6876,7 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="13" t="s">
         <v>115</v>
@@ -6903,7 +6900,7 @@
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="13"/>
       <c r="C197" s="12"/>
@@ -6925,7 +6922,7 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>50</v>
       </c>
@@ -6955,7 +6952,7 @@
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="13"/>
       <c r="C199" s="12"/>
@@ -6977,7 +6974,7 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="13" t="s">
         <v>116</v>
@@ -7001,7 +6998,7 @@
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="13"/>
       <c r="C201" s="12"/>
@@ -7023,7 +7020,7 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>51</v>
       </c>
@@ -7053,7 +7050,7 @@
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="13"/>
       <c r="C203" s="12"/>
@@ -7075,7 +7072,7 @@
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="13" t="s">
         <v>117</v>
@@ -7099,7 +7096,7 @@
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="13"/>
       <c r="C205" s="12"/>
@@ -7121,7 +7118,7 @@
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>52</v>
       </c>
@@ -7151,7 +7148,7 @@
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="13"/>
       <c r="C207" s="12"/>
@@ -7173,7 +7170,7 @@
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="13" t="s">
         <v>118</v>
@@ -7197,7 +7194,7 @@
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="13"/>
       <c r="C209" s="12"/>
@@ -7219,7 +7216,7 @@
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>53</v>
       </c>
@@ -7249,7 +7246,7 @@
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="13"/>
       <c r="C211" s="12"/>
@@ -7271,7 +7268,7 @@
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="13" t="s">
         <v>119</v>
@@ -7295,7 +7292,7 @@
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="13"/>
       <c r="C213" s="12"/>
@@ -7317,7 +7314,7 @@
       <c r="S213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>54</v>
       </c>
@@ -7347,7 +7344,7 @@
       <c r="S214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="13"/>
       <c r="C215" s="12"/>
@@ -7369,7 +7366,7 @@
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="13" t="s">
         <v>120</v>
@@ -7393,7 +7390,7 @@
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="13"/>
       <c r="C217" s="12"/>
@@ -7415,7 +7412,7 @@
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>55</v>
       </c>
@@ -7445,7 +7442,7 @@
       <c r="S218" s="3"/>
       <c r="T218" s="3"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="13"/>
       <c r="C219" s="12"/>
@@ -7467,7 +7464,7 @@
       <c r="S219" s="3"/>
       <c r="T219" s="3"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="13" t="s">
         <v>121</v>
@@ -7491,7 +7488,7 @@
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="13"/>
       <c r="C221" s="12"/>
@@ -7513,7 +7510,7 @@
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>56</v>
       </c>
@@ -7543,7 +7540,7 @@
       <c r="S222" s="3"/>
       <c r="T222" s="3"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="13"/>
       <c r="C223" s="12"/>
@@ -7565,7 +7562,7 @@
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="13" t="s">
         <v>122</v>
@@ -7589,7 +7586,7 @@
       <c r="S224" s="3"/>
       <c r="T224" s="3"/>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="13"/>
       <c r="C225" s="12"/>
@@ -7611,7 +7608,7 @@
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>57</v>
       </c>
@@ -7641,7 +7638,7 @@
       <c r="S226" s="3"/>
       <c r="T226" s="3"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="13"/>
       <c r="C227" s="12"/>
@@ -7663,7 +7660,7 @@
       <c r="S227" s="3"/>
       <c r="T227" s="3"/>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="13" t="s">
         <v>123</v>
@@ -7687,7 +7684,7 @@
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="13"/>
       <c r="C229" s="12"/>
@@ -7709,7 +7706,7 @@
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>58</v>
       </c>
@@ -7739,7 +7736,7 @@
       <c r="S230" s="3"/>
       <c r="T230" s="3"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="13"/>
       <c r="C231" s="12"/>
@@ -7761,7 +7758,7 @@
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="13" t="s">
         <v>124</v>
@@ -7785,7 +7782,7 @@
       <c r="S232" s="3"/>
       <c r="T232" s="3"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="13"/>
       <c r="C233" s="12"/>
@@ -7807,7 +7804,7 @@
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>59</v>
       </c>
@@ -7837,7 +7834,7 @@
       <c r="S234" s="3"/>
       <c r="T234" s="3"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="13"/>
       <c r="C235" s="12"/>
@@ -7859,7 +7856,7 @@
       <c r="S235" s="3"/>
       <c r="T235" s="3"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="13" t="s">
         <v>125</v>
@@ -7883,7 +7880,7 @@
       <c r="S236" s="3"/>
       <c r="T236" s="3"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="13"/>
       <c r="C237" s="12"/>
@@ -7905,7 +7902,7 @@
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>60</v>
       </c>
@@ -7935,7 +7932,7 @@
       <c r="S238" s="3"/>
       <c r="T238" s="3"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="13"/>
       <c r="C239" s="12"/>
@@ -7957,7 +7954,7 @@
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="13" t="s">
         <v>126</v>
@@ -7981,7 +7978,7 @@
       <c r="S240" s="3"/>
       <c r="T240" s="3"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="13"/>
       <c r="C241" s="12"/>
@@ -8003,7 +8000,7 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>61</v>
       </c>
@@ -8033,7 +8030,7 @@
       <c r="S242" s="3"/>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="13"/>
       <c r="C243" s="12"/>
@@ -8055,7 +8052,7 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="7" t="s">
         <v>127</v>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41908427-1844-4224-B130-4AB83B10A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D8773-3986-4493-A28D-C633CC580296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="7935" windowWidth="19890" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="7935" windowWidth="17880" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="279">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -656,9 +656,6 @@
     <t>Azure Administrator Associate</t>
   </si>
   <si>
-    <t>Power Shell / Linux / Python</t>
-  </si>
-  <si>
     <t>AZ 900</t>
   </si>
   <si>
@@ -855,13 +852,34 @@
   </si>
   <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>PCAP - Certified Associate in Python Programming certification</t>
+  </si>
+  <si>
+    <t>https://pythoninstitute.org/certification/pcap-certification-associate/</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>Puppet</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,8 +966,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1052,22 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1039,7 +1087,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1050,8 +1098,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1075,7 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="15" fontId="11" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="6"/>
@@ -1088,17 +1137,26 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="13" fillId="14" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="11"/>
+    <xf numFmtId="14" fontId="12" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="8" builtinId="42"/>
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
     <cellStyle name="60% - Accent5" xfId="9" builtinId="48"/>
     <cellStyle name="Accent3" xfId="7" builtinId="37"/>
+    <cellStyle name="Bad" xfId="10" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1384,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,1234 +1457,1273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>44365</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>44437</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f>D3-C3</f>
         <v>72</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="16">
         <v>44438</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>44459</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E18" si="0">D4-C4</f>
         <v>21</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>44460</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>44546</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="18">
         <v>44547</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>44556</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>44557</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>44577</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="18">
         <v>44578</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>44591</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="18">
         <v>44592</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>44605</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="22"/>
+      <c r="B10" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="18">
         <v>44606</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>44619</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="18">
         <v>44620</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>44633</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="18">
         <v>44634</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>44647</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="18">
         <v>44648</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>44661</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="18">
         <v>44662</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>44675</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="18">
         <v>44676</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>44689</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="18">
         <v>44690</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>44703</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="18">
         <v>44704</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>44717</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="18">
         <v>44718</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>44731</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B30" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="B49" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="B52" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" s="25" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="25" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="B56" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="25" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="25" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="25" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
+      <c r="A64" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2642,18 +2739,19 @@
     <hyperlink ref="A56" r:id="rId10" xr:uid="{02964B7D-471E-4090-98E0-1B59D096CEB7}"/>
     <hyperlink ref="A62" r:id="rId11" xr:uid="{440E9D7D-C549-423C-BF33-6773CEB95CD7}"/>
     <hyperlink ref="A63" r:id="rId12" xr:uid="{327C722F-4DA4-4ED1-95D6-47AF838ADCEC}"/>
+    <hyperlink ref="A65" r:id="rId13" xr:uid="{F072B3F6-E1E1-4E10-AA9D-6276F85173EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,134 +2760,645 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>44536</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>44537</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>44538</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>44537</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>44538</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>44539</v>
       </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="B5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>44540</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>44541</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>44542</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>44541</v>
-      </c>
-      <c r="B7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>44543</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>44544</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>44545</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>44542</v>
-      </c>
-      <c r="B8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>44543</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>44544</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>44545</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="C11" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>44546</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="33" t="s">
         <v>130</v>
       </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2800,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D8773-3986-4493-A28D-C633CC580296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="7935" windowWidth="17880" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="7935" windowWidth="17880" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
     <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="291">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -857,9 +856,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>PCAP - Certified Associate in Python Programming certification</t>
-  </si>
-  <si>
     <t>https://pythoninstitute.org/certification/pcap-certification-associate/</t>
   </si>
   <si>
@@ -873,12 +869,51 @@
   </si>
   <si>
     <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>https://www.splunk.com/en_us/training.html?sort=Newest</t>
+  </si>
+  <si>
+    <t>PCAP - Certified Associate in Python Programming Certification</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified User</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified power User</t>
+  </si>
+  <si>
+    <t>Splunk Core Certified advanced power User</t>
+  </si>
+  <si>
+    <t>Splunk Cloud Certified Admin</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>https://university.atlassian.com/student/activity/836769-get-certified</t>
+  </si>
+  <si>
+    <t>ACP-600 Atlassin Certified in Jira Project Administration</t>
+  </si>
+  <si>
+    <t>ACP-300 Atlassin Certified in agile Development with Jira Software</t>
+  </si>
+  <si>
+    <t>ACP-400 Atlassin Certified in Jira Service Desk Administration</t>
+  </si>
+  <si>
+    <t>ACP-100 Atlassia Cetified Jira Administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,12 +1097,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1101,7 +1130,7 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1137,13 +1166,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="13" fillId="14" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="11"/>
     <xf numFmtId="14" fontId="12" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="8" builtinId="42"/>
@@ -1441,11 +1471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1950,7 @@
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -1941,7 +1971,7 @@
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -1960,7 +1990,7 @@
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -1979,7 +2009,7 @@
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -2690,9 +2720,7 @@
       <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>272</v>
-      </c>
+      <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -2707,12 +2735,10 @@
       <c r="M64" s="22"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>273</v>
-      </c>
+      <c r="A65" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -2725,32 +2751,332 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A49" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A52" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A56" r:id="rId10" xr:uid="{02964B7D-471E-4090-98E0-1B59D096CEB7}"/>
-    <hyperlink ref="A62" r:id="rId11" xr:uid="{440E9D7D-C549-423C-BF33-6773CEB95CD7}"/>
-    <hyperlink ref="A63" r:id="rId12" xr:uid="{327C722F-4DA4-4ED1-95D6-47AF838ADCEC}"/>
-    <hyperlink ref="A65" r:id="rId13" xr:uid="{F072B3F6-E1E1-4E10-AA9D-6276F85173EE}"/>
+    <hyperlink ref="A34" r:id="rId1" location="certification_paths"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A42" r:id="rId4"/>
+    <hyperlink ref="A45" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
+    <hyperlink ref="A49" r:id="rId8"/>
+    <hyperlink ref="A52" r:id="rId9"/>
+    <hyperlink ref="A56" r:id="rId10"/>
+    <hyperlink ref="A62" r:id="rId11"/>
+    <hyperlink ref="A63" r:id="rId12"/>
+    <hyperlink ref="A66" r:id="rId13"/>
+    <hyperlink ref="A69" r:id="rId14"/>
+    <hyperlink ref="A75" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2761,13 +3087,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="22"/>
@@ -2786,7 +3112,7 @@
       <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>44536</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -2811,7 +3137,7 @@
       <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>44537</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2836,7 +3162,7 @@
       <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>44538</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -2861,7 +3187,7 @@
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>44539</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -2886,7 +3212,7 @@
       <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>44540</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -2911,13 +3237,13 @@
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>44541</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>256</v>
       </c>
       <c r="D7" s="22"/>
@@ -2936,13 +3262,13 @@
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>44542</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>256</v>
       </c>
       <c r="D8" s="22"/>
@@ -2961,13 +3287,13 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>44543</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>256</v>
       </c>
       <c r="D9" s="22"/>
@@ -2986,13 +3312,13 @@
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>44544</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>256</v>
       </c>
       <c r="D10" s="22"/>
@@ -3011,13 +3337,13 @@
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>44545</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>256</v>
       </c>
       <c r="D11" s="22"/>
@@ -3036,13 +3362,13 @@
       <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>44546</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3406,7 +3732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -9676,67 +10002,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1016,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,12 +1071,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -1116,7 +1110,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1126,11 +1120,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1159,34 +1152,32 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="6"/>
     <xf numFmtId="15" fontId="9" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="8"/>
-    <xf numFmtId="15" fontId="9" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="13" fillId="14" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="11"/>
-    <xf numFmtId="14" fontId="12" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="10"/>
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="15" fontId="13" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="20% - Accent4" xfId="8" builtinId="42"/>
+  <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
-    <cellStyle name="60% - Accent5" xfId="9" builtinId="48"/>
+    <cellStyle name="60% - Accent5" xfId="8" builtinId="48"/>
     <cellStyle name="Accent3" xfId="7" builtinId="37"/>
-    <cellStyle name="Bad" xfId="10" builtinId="27"/>
+    <cellStyle name="Bad" xfId="9" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="11" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1475,7 +1466,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,49 +1478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -1543,19 +1534,19 @@
         <f>D3-C3</f>
         <v>72</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="15" t="s">
         <v>206</v>
       </c>
@@ -1569,71 +1560,71 @@
         <f t="shared" ref="E4:E18" si="0">D4-C4</f>
         <v>21</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>44460</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>44546</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="33">
         <v>44547</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="33">
         <v>44556</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
         <v>204</v>
       </c>
@@ -1647,19 +1638,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="17" t="s">
         <v>237</v>
       </c>
@@ -1673,19 +1664,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
         <v>251</v>
       </c>
@@ -1699,19 +1690,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="17" t="s">
         <v>233</v>
       </c>
@@ -1725,17 +1716,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
         <v>244</v>
       </c>
@@ -1749,17 +1740,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>222</v>
       </c>
@@ -1773,17 +1764,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="17" t="s">
         <v>223</v>
       </c>
@@ -1797,17 +1788,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="17" t="s">
         <v>242</v>
       </c>
@@ -1821,17 +1812,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="17" t="s">
         <v>243</v>
       </c>
@@ -1845,17 +1836,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
         <v>260</v>
       </c>
@@ -1869,17 +1860,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="17" t="s">
         <v>261</v>
       </c>
@@ -1893,17 +1884,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>267</v>
       </c>
@@ -1917,1137 +1908,1137 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="34" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="34" t="s">
+      <c r="A71" s="20"/>
+      <c r="B71" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="20"/>
+      <c r="B76" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="20"/>
+      <c r="B77" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="20"/>
+      <c r="B78" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3087,32 +3078,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <v>44536</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3121,23 +3112,23 @@
       <c r="C2" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>44537</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3146,23 +3137,23 @@
       <c r="C3" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>44538</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3171,23 +3162,23 @@
       <c r="C4" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>44539</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3196,23 +3187,23 @@
       <c r="C5" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>44540</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3221,510 +3212,510 @@
       <c r="C6" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>44541</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>44542</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>44543</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>44544</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <v>44545</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>44546</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1123,7 +1123,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1166,6 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="15" fontId="13" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1466,7 +1467,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1652,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="34" t="s">
         <v>237</v>
       </c>
       <c r="C8" s="18">

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C10" s="18">
         <v>44606</v>
@@ -1729,7 +1729,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="18">
         <v>44620</v>
@@ -1753,7 +1753,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="C12" s="18">
         <v>44634</v>
@@ -1777,7 +1777,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="18">
         <v>44648</v>
@@ -1801,7 +1801,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="17" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C14" s="18">
         <v>44662</v>
@@ -1825,7 +1825,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C15" s="18">
         <v>44676</v>
@@ -1849,7 +1849,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C16" s="18">
         <v>44690</v>
@@ -1873,7 +1873,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="18">
         <v>44704</v>
@@ -1897,7 +1897,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C18" s="18">
         <v>44718</v>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="7935" windowWidth="17880" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17880" windowHeight="225"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,8 +1626,8 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="17" t="s">
-        <v>204</v>
+      <c r="B7" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="C7" s="18">
         <v>44557</v>
@@ -1652,8 +1652,8 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="34" t="s">
-        <v>237</v>
+      <c r="B8" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="C8" s="18">
         <v>44578</v>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDFA00-8ADD-4AB5-9D9A-4D2D02E84066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17880" windowHeight="225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
     <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -913,7 +914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1124,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1166,7 +1167,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="15" fontId="13" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1463,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="16">
         <v>44547</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="16">
         <v>44556</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1626,16 +1626,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="33">
         <v>44557</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="33">
         <v>44577</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3043,21 +3043,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" location="certification_paths"/>
-    <hyperlink ref="A38" r:id="rId2"/>
-    <hyperlink ref="A21" r:id="rId3"/>
-    <hyperlink ref="A42" r:id="rId4"/>
-    <hyperlink ref="A45" r:id="rId5"/>
-    <hyperlink ref="A26" r:id="rId6"/>
-    <hyperlink ref="A30" r:id="rId7"/>
-    <hyperlink ref="A49" r:id="rId8"/>
-    <hyperlink ref="A52" r:id="rId9"/>
-    <hyperlink ref="A56" r:id="rId10"/>
-    <hyperlink ref="A62" r:id="rId11"/>
-    <hyperlink ref="A63" r:id="rId12"/>
-    <hyperlink ref="A66" r:id="rId13"/>
-    <hyperlink ref="A69" r:id="rId14"/>
-    <hyperlink ref="A75" r:id="rId15"/>
+    <hyperlink ref="A34" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A49" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A52" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A56" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A62" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A63" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A66" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A75" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
@@ -3065,7 +3065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3724,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -9994,67 +9994,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDFA00-8ADD-4AB5-9D9A-4D2D02E84066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
     <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="305">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -770,9 +769,6 @@
     <t>Google Cloud Engineer</t>
   </si>
   <si>
-    <t>Red Hat System Administrator l (RHCSA)</t>
-  </si>
-  <si>
     <t>https://www.scrum.org/</t>
   </si>
   <si>
@@ -821,9 +817,6 @@
     <t>VCTA - Vmware Certified Technical Associate</t>
   </si>
   <si>
-    <t xml:space="preserve">VCP - Vmware Certfied Professional </t>
-  </si>
-  <si>
     <t>Vmware</t>
   </si>
   <si>
@@ -909,12 +902,60 @@
   </si>
   <si>
     <t>ACP-100 Atlassia Cetified Jira Administrator</t>
+  </si>
+  <si>
+    <t>Best DevOps Cert</t>
+  </si>
+  <si>
+    <t>https://hackr.io/blog/best-devops-certification</t>
+  </si>
+  <si>
+    <t>Cerified Kubernetes Application Developer (CKAD)</t>
+  </si>
+  <si>
+    <t>Azure DevOps Engineer Expert</t>
+  </si>
+  <si>
+    <t>AWS Certified DevOps Engineer Professional</t>
+  </si>
+  <si>
+    <t>Puppet Professional Certification</t>
+  </si>
+  <si>
+    <t>Architecting With Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>AWS SysOps Administrator</t>
+  </si>
+  <si>
+    <t>AWS DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Azure DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Google Cloud Architect</t>
+  </si>
+  <si>
+    <t>Google Cloud DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Certified Kubernetes Application Developer CKAD</t>
+  </si>
+  <si>
+    <t>Udacity Cloud DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Harvard Extension Computer Programming</t>
+  </si>
+  <si>
+    <t>HashiCorp Certified: Terraform Associate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,7 +1058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1133,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4DFDD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1111,7 +1170,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,8 +1182,9 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1167,8 +1227,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="15" fontId="13" fillId="13" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -1180,13 +1246,20 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FF4CFEBA"/>
+      <color rgb="FF4DFDD3"/>
+      <color rgb="FF4DFDE8"/>
+      <color rgb="FFF04EFC"/>
+      <color rgb="FFFA50FA"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF00FF99"/>
     </mruColors>
   </colors>
@@ -1463,11 +1536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1561,7 @@
         <v>130</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20" t="s">
@@ -1563,7 +1636,7 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -1589,7 +1662,7 @@
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1653,7 +1726,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="17" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="C8" s="18">
         <v>44578</v>
@@ -1679,7 +1752,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="18">
         <v>44592</v>
@@ -1752,8 +1825,8 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="17" t="s">
-        <v>267</v>
+      <c r="B12" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="C12" s="18">
         <v>44634</v>
@@ -1766,18 +1839,20 @@
         <v>13</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="17" t="s">
-        <v>222</v>
+      <c r="B13" s="37" t="s">
+        <v>296</v>
       </c>
       <c r="C13" s="18">
         <v>44648</v>
@@ -1790,18 +1865,20 @@
         <v>13</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="G13" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="17" t="s">
-        <v>223</v>
+      <c r="B14" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C14" s="18">
         <v>44662</v>
@@ -1824,8 +1901,8 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
-        <v>233</v>
+      <c r="B15" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="C15" s="18">
         <v>44676</v>
@@ -1848,8 +1925,8 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="17" t="s">
-        <v>244</v>
+      <c r="B16" s="37" t="s">
+        <v>297</v>
       </c>
       <c r="C16" s="18">
         <v>44690</v>
@@ -1872,8 +1949,8 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="17" t="s">
-        <v>260</v>
+      <c r="B17" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="C17" s="18">
         <v>44704</v>
@@ -1896,8 +1973,8 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="17" t="s">
-        <v>261</v>
+      <c r="B18" s="37" t="s">
+        <v>301</v>
       </c>
       <c r="C18" s="18">
         <v>44718</v>
@@ -1942,7 +2019,7 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -1956,14 +2033,14 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -1982,7 +2059,7 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -2001,7 +2078,7 @@
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -2049,7 +2126,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>207</v>
@@ -2106,10 +2183,12 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2119,16 +2198,18 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="D30" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -2142,7 +2223,9 @@
         <v>129</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -2159,7 +2242,9 @@
         <v>131</v>
       </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -2176,7 +2261,9 @@
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -2195,7 +2282,9 @@
         <v>136</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -2212,7 +2301,9 @@
         <v>137</v>
       </c>
       <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -2229,7 +2320,9 @@
         <v>138</v>
       </c>
       <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -2246,7 +2339,9 @@
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>295</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -2259,7 +2354,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>222</v>
@@ -2452,7 +2547,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>226</v>
@@ -2505,7 +2600,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>229</v>
@@ -2558,7 +2653,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -2575,10 +2670,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -2595,7 +2690,7 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -2612,7 +2707,7 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -2629,7 +2724,7 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -2660,7 +2755,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -2677,10 +2772,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -2696,7 +2791,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -2728,7 +2823,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -2745,10 +2840,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -2779,7 +2874,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -2796,10 +2891,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="32" t="s">
         <v>279</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>281</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -2816,7 +2911,7 @@
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -2833,7 +2928,7 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -2850,7 +2945,7 @@
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -2881,7 +2976,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -2898,10 +2993,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -2918,7 +3013,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -2935,7 +3030,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -2952,7 +3047,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -3043,29 +3138,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A49" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A52" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A56" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A62" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A63" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A66" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A75" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A34" r:id="rId1" location="certification_paths"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A42" r:id="rId4"/>
+    <hyperlink ref="A45" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
+    <hyperlink ref="A49" r:id="rId8"/>
+    <hyperlink ref="A52" r:id="rId9"/>
+    <hyperlink ref="A56" r:id="rId10"/>
+    <hyperlink ref="A62" r:id="rId11"/>
+    <hyperlink ref="A63" r:id="rId12"/>
+    <hyperlink ref="A66" r:id="rId13"/>
+    <hyperlink ref="A69" r:id="rId14"/>
+    <hyperlink ref="A75" r:id="rId15"/>
+    <hyperlink ref="D30" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3204,7 @@
         <v>44536</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>215</v>
@@ -3158,7 +3254,7 @@
         <v>44538</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>215</v>
@@ -3208,10 +3304,10 @@
         <v>44540</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3233,10 +3329,10 @@
         <v>44541</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3258,10 +3354,10 @@
         <v>44542</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -3283,10 +3379,10 @@
         <v>44543</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -3308,10 +3404,10 @@
         <v>44544</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -3333,10 +3429,10 @@
         <v>44545</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3724,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -9994,67 +10090,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="307">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -943,13 +943,19 @@
     <t>Certified Kubernetes Application Developer CKAD</t>
   </si>
   <si>
-    <t>Udacity Cloud DevOps Engineer</t>
-  </si>
-  <si>
     <t>Harvard Extension Computer Programming</t>
   </si>
   <si>
     <t>HashiCorp Certified: Terraform Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Guru Linux &amp; Cloud </t>
+  </si>
+  <si>
+    <t>Scheduled Jan 15</t>
+  </si>
+  <si>
+    <t>Schedule Jan 9</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1546,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,9 +1704,11 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="20" t="s">
+        <v>306</v>
+      </c>
       <c r="B7" s="28" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C7" s="33">
         <v>44557</v>
@@ -1724,9 +1732,11 @@
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="B8" s="17" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C8" s="18">
         <v>44578</v>
@@ -1826,7 +1836,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="18">
         <v>44634</v>
@@ -1840,7 +1850,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -1866,7 +1876,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -2063,7 +2073,9 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E6E15-1A82-4489-884D-DFA0F3930073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
     <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="328">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -766,9 +767,6 @@
     <t>Google Cloud Digital Leader</t>
   </si>
   <si>
-    <t>Google Cloud Engineer</t>
-  </si>
-  <si>
     <t>https://www.scrum.org/</t>
   </si>
   <si>
@@ -925,12 +923,6 @@
     <t>Architecting With Google Cloud Platform</t>
   </si>
   <si>
-    <t>AWS SysOps Administrator</t>
-  </si>
-  <si>
-    <t>AWS DevOps Engineer</t>
-  </si>
-  <si>
     <t>Azure DevOps Engineer</t>
   </si>
   <si>
@@ -943,26 +935,98 @@
     <t>Certified Kubernetes Application Developer CKAD</t>
   </si>
   <si>
-    <t>Harvard Extension Computer Programming</t>
-  </si>
-  <si>
     <t>HashiCorp Certified: Terraform Associate</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud Guru Linux &amp; Cloud </t>
   </si>
   <si>
-    <t>Scheduled Jan 15</t>
-  </si>
-  <si>
-    <t>Schedule Jan 9</t>
+    <t>AWS Certified Solutions Architect - Associate (SAA-C02)</t>
+  </si>
+  <si>
+    <t>AWS Certified SysOps Administrator - Associate</t>
+  </si>
+  <si>
+    <t>Google Certified Associate Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Google Cloud Developer</t>
+  </si>
+  <si>
+    <t>Microsoft Certified Azure - Developer Associate</t>
+  </si>
+  <si>
+    <t>Linux Professional Institute Linux Essentials</t>
+  </si>
+  <si>
+    <t>LPIC-1 Certified Linux Administrator</t>
+  </si>
+  <si>
+    <t>RedHat Certified Systems Administrator (RHCSA)</t>
+  </si>
+  <si>
+    <t>RedHat Certified Engineer</t>
+  </si>
+  <si>
+    <t>RedHat Certified Specialist in Linux Diagnostic and Troubleshooting</t>
+  </si>
+  <si>
+    <t>Cisco Certified DevNet Associate</t>
+  </si>
+  <si>
+    <t>Cisco Certified DevNet Specialist</t>
+  </si>
+  <si>
+    <t>Cisco Certified DevNet Expert</t>
+  </si>
+  <si>
+    <t>Cisco Certified DevNet Professional</t>
+  </si>
+  <si>
+    <t>Scheduled Jan 9</t>
+  </si>
+  <si>
+    <t>Schedule Jan 15</t>
+  </si>
+  <si>
+    <t>NDC MBA</t>
+  </si>
+  <si>
+    <t>Certified Kubernetes Administrator</t>
+  </si>
+  <si>
+    <t>PMP certificaiotns</t>
+  </si>
+  <si>
+    <t>CISSP</t>
+  </si>
+  <si>
+    <t>CEH</t>
+  </si>
+  <si>
+    <t>IBM Data Science Professional</t>
+  </si>
+  <si>
+    <t>Harvard X Data Science</t>
+  </si>
+  <si>
+    <t>Simply learns digital marketing</t>
+  </si>
+  <si>
+    <t>Google Analytics IQ certification</t>
+  </si>
+  <si>
+    <t>Stanfard AI coursera</t>
+  </si>
+  <si>
+    <t>Harvard Extension Masters in Information Management Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1127,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1158,7 +1230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1175,8 +1247,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1189,8 +1270,9 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyFont="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1220,7 +1302,6 @@
     <xf numFmtId="15" fontId="9" fillId="8" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
@@ -1239,8 +1320,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="12"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -1249,10 +1333,11 @@
     <cellStyle name="Bad" xfId="9" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="12" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="11"/>
+    <cellStyle name="Style 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1542,11 +1627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,19 +1640,20 @@
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>269</v>
+      <c r="E1" s="41" t="s">
+        <v>268</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20" t="s">
@@ -1580,14 +1666,23 @@
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>44365</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44437</v>
+      </c>
+      <c r="E2" s="15">
+        <f>D2-C2</f>
+        <v>72</v>
+      </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20" t="s">
         <v>219</v>
@@ -1602,17 +1697,17 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="15" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C3" s="16">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="D3" s="16">
-        <v>44437</v>
+        <v>44459</v>
       </c>
       <c r="E3" s="15">
-        <f>D3-C3</f>
-        <v>72</v>
+        <f t="shared" ref="E3:E17" si="0">D3-C3</f>
+        <v>21</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20" t="s">
@@ -1628,21 +1723,21 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="16">
-        <v>44438</v>
+        <v>44460</v>
       </c>
       <c r="D4" s="16">
-        <v>44459</v>
+        <v>44546</v>
       </c>
       <c r="E4" s="15">
-        <f t="shared" ref="E4:E18" si="0">D4-C4</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -1654,21 +1749,21 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C5" s="16">
-        <v>44460</v>
+        <v>44547</v>
       </c>
       <c r="D5" s="16">
-        <v>44546</v>
+        <v>44556</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1678,19 +1773,21 @@
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="16">
-        <v>44547</v>
-      </c>
-      <c r="D6" s="16">
-        <v>44556</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="A6" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="32">
+        <v>44557</v>
+      </c>
+      <c r="D6" s="32">
+        <v>44577</v>
+      </c>
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20" t="s">
@@ -1705,20 +1802,20 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="33">
-        <v>44557</v>
-      </c>
-      <c r="D7" s="33">
-        <v>44577</v>
-      </c>
-      <c r="E7" s="28">
+        <v>316</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="18">
+        <v>44578</v>
+      </c>
+      <c r="D7" s="18">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20" t="s">
@@ -1732,20 +1829,18 @@
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>305</v>
-      </c>
+      <c r="A8" s="20"/>
       <c r="B8" s="17" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="C8" s="18">
-        <v>44578</v>
+        <v>44592</v>
       </c>
       <c r="D8" s="18">
-        <v>44591</v>
+        <v>44605</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="0"/>
+        <f>D8-C8</f>
         <v>13</v>
       </c>
       <c r="F8" s="20"/>
@@ -1762,16 +1857,16 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C9" s="18">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="D9" s="18">
-        <v>44605</v>
+        <v>44619</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="0"/>
+        <f>D9-C9</f>
         <v>13</v>
       </c>
       <c r="F9" s="20"/>
@@ -1788,16 +1883,16 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="17" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="C10" s="18">
-        <v>44606</v>
+        <v>44620</v>
       </c>
       <c r="D10" s="18">
-        <v>44619</v>
+        <v>44633</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="0"/>
+        <f>D10-C10</f>
         <v>13</v>
       </c>
       <c r="F10" s="20"/>
@@ -1812,16 +1907,16 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="18">
-        <v>44620</v>
+        <v>44634</v>
       </c>
       <c r="D11" s="18">
-        <v>44633</v>
+        <v>44647</v>
       </c>
       <c r="E11" s="17">
-        <f t="shared" si="0"/>
+        <f>D11-C11</f>
         <v>13</v>
       </c>
       <c r="F11" s="20"/>
@@ -1835,93 +1930,95 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>303</v>
       </c>
       <c r="C12" s="18">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="D12" s="18">
-        <v>44647</v>
+        <v>44661</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="0"/>
+        <f>D12-C12</f>
         <v>13</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>296</v>
       </c>
       <c r="C13" s="18">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="D13" s="18">
-        <v>44661</v>
+        <v>44675</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="0"/>
+        <f>D13-C13</f>
         <v>13</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="37" t="s">
-        <v>299</v>
+      <c r="B14" s="36" t="s">
+        <v>304</v>
       </c>
       <c r="C14" s="18">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="D14" s="18">
-        <v>44675</v>
+        <v>44689</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="0"/>
+        <f>D14-C14</f>
         <v>13</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="G14" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
-        <v>298</v>
+      <c r="B15" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="C15" s="18">
-        <v>44676</v>
+        <v>44690</v>
       </c>
       <c r="D15" s="18">
-        <v>44689</v>
+        <v>44703</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="0"/>
+        <f>D15-C15</f>
         <v>13</v>
       </c>
       <c r="F15" s="20"/>
@@ -1935,17 +2032,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
-        <v>297</v>
+      <c r="B16" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="C16" s="18">
-        <v>44690</v>
+        <v>44704</v>
       </c>
       <c r="D16" s="18">
-        <v>44703</v>
+        <v>44717</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" si="0"/>
+        <f>D16-C16</f>
         <v>13</v>
       </c>
       <c r="F16" s="20"/>
@@ -1957,19 +2054,19 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
-        <v>300</v>
+      <c r="B17" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="C17" s="18">
-        <v>44704</v>
+        <v>44718</v>
       </c>
       <c r="D17" s="18">
-        <v>44717</v>
+        <v>44731</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="0"/>
+        <f>D17-C17</f>
         <v>13</v>
       </c>
       <c r="F17" s="20"/>
@@ -1981,167 +2078,209 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="37" t="s">
-        <v>301</v>
+      <c r="B18" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="C18" s="18">
-        <v>44718</v>
+        <v>44732</v>
       </c>
       <c r="D18" s="18">
-        <v>44731</v>
+        <v>44745</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="0"/>
+        <f>D18-C18</f>
         <v>13</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="18">
+        <v>44746</v>
+      </c>
+      <c r="D19" s="18">
+        <v>44759</v>
+      </c>
+      <c r="E19" s="17">
+        <f>D19-C19</f>
+        <v>13</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="20"/>
+      <c r="I19" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="18">
+        <v>44760</v>
+      </c>
+      <c r="D20" s="18">
+        <v>44773</v>
+      </c>
+      <c r="E20" s="17">
+        <f>D20-C20</f>
+        <v>13</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>132</v>
-      </c>
+      <c r="I20" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="23" t="s">
-        <v>273</v>
-      </c>
+      <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22" t="s">
-        <v>2</v>
+      <c r="I21" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="23" t="s">
-        <v>274</v>
+      <c r="D22" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="17" t="s">
-        <v>265</v>
-      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22" t="s">
-        <v>141</v>
+      <c r="I22" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="23" t="s">
-        <v>275</v>
+      <c r="D23" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="22" t="s">
-        <v>142</v>
+      <c r="B24" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="22" t="s">
+        <v>273</v>
+      </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="I24" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>207</v>
+      <c r="I25" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2149,33 +2288,43 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22" t="s">
-        <v>204</v>
-      </c>
+      <c r="I26" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22" t="s">
-        <v>3</v>
+      <c r="I27" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2183,98 +2332,106 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="20"/>
+      <c r="I28" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>140</v>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22" t="s">
-        <v>129</v>
-      </c>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="D31" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22" t="s">
-        <v>131</v>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -2287,15 +2444,13 @@
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>136</v>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -2308,13 +2463,13 @@
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22" t="s">
-        <v>137</v>
-      </c>
+      <c r="A35" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -2327,13 +2482,15 @@
       <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22" t="s">
-        <v>138</v>
+      <c r="A36" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -2346,64 +2503,74 @@
       <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="20" t="s">
+        <v>319</v>
+      </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>222</v>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="20" t="s">
+        <v>320</v>
+      </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22" t="s">
-        <v>223</v>
-      </c>
+      <c r="A39" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="I39" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22" t="s">
-        <v>224</v>
+      <c r="A40" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -2411,35 +2578,37 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21" t="s">
+        <v>223</v>
+      </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>233</v>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -2447,24 +2616,28 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22" t="s">
-        <v>234</v>
-      </c>
+      <c r="A43" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -2472,27 +2645,29 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>237</v>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -2507,10 +2682,10 @@
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22" t="s">
-        <v>239</v>
-      </c>
+      <c r="A46" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
@@ -2524,9 +2699,11 @@
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22" t="s">
-        <v>240</v>
+      <c r="A47" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -2541,10 +2718,10 @@
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21" t="s">
+        <v>239</v>
+      </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -2558,11 +2735,9 @@
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>226</v>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -2577,10 +2752,10 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22" t="s">
-        <v>227</v>
-      </c>
+      <c r="A50" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -2595,9 +2770,11 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>226</v>
+      </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2611,11 +2788,9 @@
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>229</v>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -2630,10 +2805,10 @@
       <c r="M52" s="20"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22" t="s">
-        <v>230</v>
-      </c>
+      <c r="A53" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -2647,9 +2822,11 @@
       <c r="M53" s="20"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22" t="s">
-        <v>231</v>
+      <c r="A54" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -2664,10 +2841,10 @@
       <c r="M54" s="20"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="20"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -2681,11 +2858,9 @@
       <c r="M55" s="20"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>259</v>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -2700,10 +2875,10 @@
       <c r="M56" s="20"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22" t="s">
-        <v>262</v>
-      </c>
+      <c r="A57" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -2717,9 +2892,11 @@
       <c r="M57" s="20"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="22" t="s">
-        <v>263</v>
+      <c r="A58" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -2735,8 +2912,8 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="22" t="s">
-        <v>264</v>
+      <c r="B59" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -2752,7 +2929,9 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -2766,10 +2945,10 @@
       <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B61" s="20"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21" t="s">
+        <v>263</v>
+      </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -2783,12 +2962,8 @@
       <c r="M61" s="20"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>265</v>
-      </c>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -2802,8 +2977,8 @@
       <c r="M62" s="20"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>268</v>
+      <c r="A63" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -2819,8 +2994,12 @@
       <c r="M63" s="20"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>264</v>
+      </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -2835,7 +3014,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -2851,12 +3030,8 @@
       <c r="M65" s="20"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>278</v>
-      </c>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -2870,7 +3045,9 @@
       <c r="M66" s="20"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="22" t="s">
+        <v>269</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -2885,10 +3062,12 @@
       <c r="M67" s="20"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="B68" s="20"/>
+      <c r="A68" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2902,12 +3081,8 @@
       <c r="M68" s="20"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>279</v>
-      </c>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -2921,10 +3096,10 @@
       <c r="M69" s="20"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="32" t="s">
-        <v>280</v>
-      </c>
+      <c r="A70" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
@@ -2938,9 +3113,11 @@
       <c r="M70" s="20"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="32" t="s">
-        <v>281</v>
+      <c r="A71" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>278</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -2956,8 +3133,8 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
-      <c r="B72" s="32" t="s">
-        <v>282</v>
+      <c r="B72" s="31" t="s">
+        <v>279</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -2973,7 +3150,9 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="31" t="s">
+        <v>280</v>
+      </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
@@ -2987,10 +3166,10 @@
       <c r="M73" s="20"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="20"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="31" t="s">
+        <v>281</v>
+      </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
@@ -3004,12 +3183,8 @@
       <c r="M74" s="20"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>285</v>
-      </c>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
@@ -3023,10 +3198,10 @@
       <c r="M75" s="20"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="32" t="s">
-        <v>286</v>
-      </c>
+      <c r="A76" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
@@ -3040,9 +3215,11 @@
       <c r="M76" s="20"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="32" t="s">
-        <v>287</v>
+      <c r="A77" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3058,8 +3235,8 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
-      <c r="B78" s="32" t="s">
-        <v>288</v>
+      <c r="B78" s="31" t="s">
+        <v>285</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -3075,7 +3252,9 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="31" t="s">
+        <v>286</v>
+      </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
@@ -3090,7 +3269,9 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="31" t="s">
+        <v>287</v>
+      </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -3148,24 +3329,639 @@
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
     </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" location="certification_paths"/>
-    <hyperlink ref="A38" r:id="rId2"/>
-    <hyperlink ref="A21" r:id="rId3"/>
-    <hyperlink ref="A42" r:id="rId4"/>
-    <hyperlink ref="A45" r:id="rId5"/>
-    <hyperlink ref="A26" r:id="rId6"/>
-    <hyperlink ref="A30" r:id="rId7"/>
-    <hyperlink ref="A49" r:id="rId8"/>
-    <hyperlink ref="A52" r:id="rId9"/>
-    <hyperlink ref="A56" r:id="rId10"/>
-    <hyperlink ref="A62" r:id="rId11"/>
-    <hyperlink ref="A63" r:id="rId12"/>
-    <hyperlink ref="A66" r:id="rId13"/>
-    <hyperlink ref="A69" r:id="rId14"/>
-    <hyperlink ref="A75" r:id="rId15"/>
-    <hyperlink ref="D30" r:id="rId16"/>
+    <hyperlink ref="A36" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A51" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A54" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A64" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A65" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A71" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3173,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,13 +3983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="20"/>
@@ -3212,11 +4008,11 @@
       <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>44536</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>215</v>
@@ -3237,7 +4033,7 @@
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>44537</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3262,11 +4058,11 @@
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44538</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>215</v>
@@ -3287,7 +4083,7 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>44539</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3312,14 +4108,14 @@
       <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>44540</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3337,14 +4133,14 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>44541</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>255</v>
+      <c r="B7" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3362,14 +4158,14 @@
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>44542</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>255</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -3387,14 +4183,14 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>44543</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>255</v>
+      <c r="B9" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -3412,14 +4208,14 @@
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>44544</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>255</v>
+      <c r="B10" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -3437,14 +4233,14 @@
       <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>44545</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>255</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3462,13 +4258,13 @@
       <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>44546</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -3832,7 +4628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -10102,67 +10898,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E6E15-1A82-4489-884D-DFA0F3930073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
     <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
     <sheet name="CCNA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="329">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -1020,12 +1019,15 @@
   </si>
   <si>
     <t>Harvard Extension Masters in Information Management Systems</t>
+  </si>
+  <si>
+    <t>Citrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,7 +1339,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Style 1" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1627,11 +1629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1708,7 @@
         <v>44459</v>
       </c>
       <c r="E3" s="15">
-        <f t="shared" ref="E3:E17" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E7" si="0">D3-C3</f>
         <v>21</v>
       </c>
       <c r="F3" s="20"/>
@@ -1840,7 +1842,7 @@
         <v>44605</v>
       </c>
       <c r="E8" s="17">
-        <f>D8-C8</f>
+        <f t="shared" ref="E8:E20" si="1">D8-C8</f>
         <v>13</v>
       </c>
       <c r="F8" s="20"/>
@@ -1866,7 +1868,7 @@
         <v>44619</v>
       </c>
       <c r="E9" s="17">
-        <f>D9-C9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F9" s="20"/>
@@ -1892,7 +1894,7 @@
         <v>44633</v>
       </c>
       <c r="E10" s="17">
-        <f>D10-C10</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F10" s="20"/>
@@ -1916,7 +1918,7 @@
         <v>44647</v>
       </c>
       <c r="E11" s="17">
-        <f>D11-C11</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F11" s="20"/>
@@ -1940,7 +1942,7 @@
         <v>44661</v>
       </c>
       <c r="E12" s="17">
-        <f>D12-C12</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F12" s="20"/>
@@ -1966,7 +1968,7 @@
         <v>44675</v>
       </c>
       <c r="E13" s="17">
-        <f>D13-C13</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F13" s="20"/>
@@ -1992,7 +1994,7 @@
         <v>44689</v>
       </c>
       <c r="E14" s="17">
-        <f>D14-C14</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F14" s="20"/>
@@ -2018,7 +2020,7 @@
         <v>44703</v>
       </c>
       <c r="E15" s="17">
-        <f>D15-C15</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F15" s="20"/>
@@ -2042,7 +2044,7 @@
         <v>44717</v>
       </c>
       <c r="E16" s="17">
-        <f>D16-C16</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F16" s="20"/>
@@ -2066,7 +2068,7 @@
         <v>44731</v>
       </c>
       <c r="E17" s="17">
-        <f>D17-C17</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F17" s="20"/>
@@ -2090,7 +2092,7 @@
         <v>44745</v>
       </c>
       <c r="E18" s="17">
-        <f>D18-C18</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F18" s="20"/>
@@ -2118,7 +2120,7 @@
         <v>44759</v>
       </c>
       <c r="E19" s="17">
-        <f>D19-C19</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F19" s="20"/>
@@ -2146,7 +2148,7 @@
         <v>44773</v>
       </c>
       <c r="E20" s="17">
-        <f>D20-C20</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F20" s="20"/>
@@ -3300,7 +3302,9 @@
       <c r="M81" s="20"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="30" t="s">
+        <v>328</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -3946,22 +3950,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A51" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A54" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A64" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A65" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A71" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A36" r:id="rId1" location="certification_paths"/>
+    <hyperlink ref="A40" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A44" r:id="rId4"/>
+    <hyperlink ref="A47" r:id="rId5"/>
+    <hyperlink ref="A28" r:id="rId6"/>
+    <hyperlink ref="A32" r:id="rId7"/>
+    <hyperlink ref="A51" r:id="rId8"/>
+    <hyperlink ref="A54" r:id="rId9"/>
+    <hyperlink ref="A58" r:id="rId10"/>
+    <hyperlink ref="A64" r:id="rId11"/>
+    <hyperlink ref="A65" r:id="rId12"/>
+    <hyperlink ref="A68" r:id="rId13"/>
+    <hyperlink ref="A71" r:id="rId14"/>
+    <hyperlink ref="A77" r:id="rId15"/>
+    <hyperlink ref="D32" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3969,7 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -10898,67 +10902,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcharara\Documents\github\Certifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C1104-15BA-4F22-BC59-89054825CB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825"/>
+    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
-    <sheet name="AZ-104" sheetId="5" r:id="rId2"/>
-    <sheet name="CCNA" sheetId="3" r:id="rId3"/>
+    <sheet name="AWS-CSAA" sheetId="6" r:id="rId2"/>
+    <sheet name="AZ-104" sheetId="5" r:id="rId3"/>
+    <sheet name="CCNA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -1022,12 +1024,27 @@
   </si>
   <si>
     <t>Citrix</t>
+  </si>
+  <si>
+    <t>E 1-3</t>
+  </si>
+  <si>
+    <t>E 4-6</t>
+  </si>
+  <si>
+    <t>E 7-9</t>
+  </si>
+  <si>
+    <t>E 10-12</t>
+  </si>
+  <si>
+    <t>E 13-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1274,7 +1291,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyFont="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1325,6 +1342,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="12"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1339,7 +1359,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="11"/>
+    <cellStyle name="Style 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1629,10 +1649,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -3950,22 +3970,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1" location="certification_paths"/>
-    <hyperlink ref="A40" r:id="rId2"/>
-    <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A44" r:id="rId4"/>
-    <hyperlink ref="A47" r:id="rId5"/>
-    <hyperlink ref="A28" r:id="rId6"/>
-    <hyperlink ref="A32" r:id="rId7"/>
-    <hyperlink ref="A51" r:id="rId8"/>
-    <hyperlink ref="A54" r:id="rId9"/>
-    <hyperlink ref="A58" r:id="rId10"/>
-    <hyperlink ref="A64" r:id="rId11"/>
-    <hyperlink ref="A65" r:id="rId12"/>
-    <hyperlink ref="A68" r:id="rId13"/>
-    <hyperlink ref="A71" r:id="rId14"/>
-    <hyperlink ref="A77" r:id="rId15"/>
-    <hyperlink ref="D32" r:id="rId16"/>
+    <hyperlink ref="A36" r:id="rId1" location="certification_paths" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A51" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A54" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A64" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A65" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A71" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A77" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3973,11 +3993,2454 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB9E2AA-E38F-4507-A9BD-FA2D4AC2D896}">
+  <dimension ref="A1:AD75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="43">
+        <v>44578</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>44579</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>44580</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>44581</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>44582</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>44583</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="42"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="42"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="42"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="42"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="42"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="42"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="42"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="42"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="42"/>
+      <c r="AB64" s="42"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="42"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="42"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="42"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="42"/>
+      <c r="AB66" s="42"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="42"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42"/>
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="42"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="42"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="42"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="42"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="42"/>
+      <c r="AB71" s="42"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="42"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,8 +7094,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -10902,67 +13365,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1"/>
-    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1"/>
-    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1"/>
-    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1"/>
-    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1"/>
-    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1"/>
-    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1"/>
-    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1"/>
-    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1"/>
-    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1"/>
-    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1"/>
-    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1"/>
-    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1"/>
-    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1"/>
-    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1"/>
-    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1"/>
-    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1"/>
-    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1"/>
-    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1"/>
-    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1"/>
-    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1"/>
-    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1"/>
-    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1"/>
-    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1"/>
-    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1"/>
-    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1"/>
-    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1"/>
-    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1"/>
-    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1"/>
-    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1"/>
-    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1"/>
-    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1"/>
-    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1"/>
-    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1"/>
-    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1"/>
-    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1"/>
-    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1"/>
-    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1"/>
-    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1"/>
-    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1"/>
-    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1"/>
-    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1"/>
-    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1"/>
-    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1"/>
-    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1"/>
-    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1"/>
-    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1"/>
-    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1"/>
-    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1"/>
-    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1"/>
-    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1"/>
-    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1"/>
-    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1"/>
-    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1"/>
-    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1"/>
-    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/1?autostart=1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/2?autostart=1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/3?autostart=1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/4?autostart=1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/12?autostart=1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B22" r:id="rId6" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/21?autostart=1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/27?autostart=1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/35?autostart=1" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/44?autostart=1" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B38" r:id="rId10" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/50?autostart=1" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/60?autostart=1" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/68?autostart=1" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B50" r:id="rId13" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/75?autostart=1" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B54" r:id="rId14" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/84?autostart=1" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B58" r:id="rId15" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/90?autostart=1" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/95?autostart=1" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/102?autostart=1" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B70" r:id="rId18" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/108?autostart=1" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B74" r:id="rId19" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/113?autostart=1" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B78" r:id="rId20" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/119?autostart=1" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B82" r:id="rId21" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/123?autostart=1" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B86" r:id="rId22" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/129?autostart=1" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B90" r:id="rId23" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/135?autostart=1" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B94" r:id="rId24" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/140?autostart=1" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B98" r:id="rId25" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/149?autostart=1" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B102" r:id="rId26" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/154?autostart=1" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B106" r:id="rId27" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/161?autostart=1" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B110" r:id="rId28" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/171?autostart=1" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B114" r:id="rId29" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/177?autostart=1" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B118" r:id="rId30" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/185?autostart=1" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B122" r:id="rId31" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/190?autostart=1" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="B126" r:id="rId32" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/195?autostart=1" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B130" r:id="rId33" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/203?autostart=1" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="B134" r:id="rId34" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/216?autostart=1" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B138" r:id="rId35" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/225?autostart=1" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="B142" r:id="rId36" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/239?autostart=1" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B146" r:id="rId37" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/250?autostart=1" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="B150" r:id="rId38" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/257?autostart=1" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B154" r:id="rId39" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/266?autostart=1" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="B158" r:id="rId40" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/276?autostart=1" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B162" r:id="rId41" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/281?autostart=1" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B166" r:id="rId42" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/290?autostart=1" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="B170" r:id="rId43" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/297?autostart=1" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B174" r:id="rId44" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/304?autostart=1" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="B178" r:id="rId45" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/309?autostart=1" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B182" r:id="rId46" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/315?autostart=1" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="B186" r:id="rId47" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/321?autostart=1" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B190" r:id="rId48" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/328?autostart=1" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="B194" r:id="rId49" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/332?autostart=1" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B198" r:id="rId50" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/337?autostart=1" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="B202" r:id="rId51" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/345?autostart=1" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B206" r:id="rId52" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/352?autostart=1" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B210" r:id="rId53" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/364?autostart=1" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B214" r:id="rId54" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/372?autostart=1" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B218" r:id="rId55" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/379?autostart=1" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B222" r:id="rId56" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/387?autostart=1" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B226" r:id="rId57" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/395?autostart=1" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B230" r:id="rId58" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/402?autostart=1" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B234" r:id="rId59" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/408?autostart=1" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B238" r:id="rId60" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/419?autostart=1" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B242" r:id="rId61" display="https://www.cbtnuggets.com/learn/it-training/playlist/nrn:playlist:certification:5de7f007bb58090014814e25/429?autostart=1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId62"/>

--- a/Certifications_Schedule.xlsx
+++ b/Certifications_Schedule.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Certifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C1104-15BA-4F22-BC59-89054825CB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC14624-8558-4EB3-967F-CE4EA991D51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="1770" windowWidth="20130" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="6555" windowWidth="20130" windowHeight="12825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certs" sheetId="1" r:id="rId1"/>
-    <sheet name="AWS-CSAA" sheetId="6" r:id="rId2"/>
-    <sheet name="AZ-104" sheetId="5" r:id="rId3"/>
-    <sheet name="CCNA" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="AWS-CSAA" sheetId="6" r:id="rId3"/>
+    <sheet name="AZ-104" sheetId="5" r:id="rId4"/>
+    <sheet name="CCNA" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="337">
   <si>
     <t>CCNA 200-301</t>
   </si>
@@ -1039,6 +1040,15 @@
   </si>
   <si>
     <t>E 13-15</t>
+  </si>
+  <si>
+    <t>Free Code Camp</t>
+  </si>
+  <si>
+    <t>Responsive Web Design Certification</t>
+  </si>
+  <si>
+    <t>Javascript Algorithms and Data Structures</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,6 +4003,6190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DA4568-5707-41C3-8EE7-8B9DD601FB61}">
+  <dimension ref="A1:Z220"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="20"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="20"/>
+      <c r="W105" s="20"/>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="20"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="20"/>
+      <c r="W114" s="20"/>
+      <c r="X114" s="20"/>
+      <c r="Y114" s="20"/>
+      <c r="Z114" s="20"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+      <c r="T115" s="20"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="20"/>
+      <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="20"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="20"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+      <c r="T117" s="20"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="20"/>
+      <c r="Z117" s="20"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="20"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="20"/>
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="20"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="20"/>
+      <c r="P119" s="20"/>
+      <c r="Q119" s="20"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+      <c r="T119" s="20"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="20"/>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="20"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="20"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20"/>
+      <c r="P121" s="20"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="20"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="20"/>
+      <c r="O125" s="20"/>
+      <c r="P125" s="20"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="20"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="20"/>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="20"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="20"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="20"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="20"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="20"/>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="20"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="20"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+      <c r="T128" s="20"/>
+      <c r="U128" s="20"/>
+      <c r="V128" s="20"/>
+      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="20"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+      <c r="T129" s="20"/>
+      <c r="U129" s="20"/>
+      <c r="V129" s="20"/>
+      <c r="W129" s="20"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="20"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="20"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+      <c r="T130" s="20"/>
+      <c r="U130" s="20"/>
+      <c r="V130" s="20"/>
+      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="20"/>
+      <c r="Z130" s="20"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
+      <c r="O131" s="20"/>
+      <c r="P131" s="20"/>
+      <c r="Q131" s="20"/>
+      <c r="R131" s="20"/>
+      <c r="S131" s="20"/>
+      <c r="T131" s="20"/>
+      <c r="U131" s="20"/>
+      <c r="V131" s="20"/>
+      <c r="W131" s="20"/>
+      <c r="X131" s="20"/>
+      <c r="Y131" s="20"/>
+      <c r="Z131" s="20"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="20"/>
+      <c r="O132" s="20"/>
+      <c r="P132" s="20"/>
+      <c r="Q132" s="20"/>
+      <c r="R132" s="20"/>
+      <c r="S132" s="20"/>
+      <c r="T132" s="20"/>
+      <c r="U132" s="20"/>
+      <c r="V132" s="20"/>
+      <c r="W132" s="20"/>
+      <c r="X132" s="20"/>
+      <c r="Y132" s="20"/>
+      <c r="Z132" s="20"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="20"/>
+      <c r="O133" s="20"/>
+      <c r="P133" s="20"/>
+      <c r="Q133" s="20"/>
+      <c r="R133" s="20"/>
+      <c r="S133" s="20"/>
+      <c r="T133" s="20"/>
+      <c r="U133" s="20"/>
+      <c r="V133" s="20"/>
+      <c r="W133" s="20"/>
+      <c r="X133" s="20"/>
+      <c r="Y133" s="20"/>
+      <c r="Z133" s="20"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="20"/>
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="20"/>
+      <c r="S134" s="20"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="20"/>
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="20"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="20"/>
+      <c r="O135" s="20"/>
+      <c r="P135" s="20"/>
+      <c r="Q135" s="20"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="20"/>
+      <c r="T135" s="20"/>
+      <c r="U135" s="20"/>
+      <c r="V135" s="20"/>
+      <c r="W135" s="20"/>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="20"/>
+      <c r="Z135" s="20"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
+      <c r="Q136" s="20"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="20"/>
+      <c r="T136" s="20"/>
+      <c r="U136" s="20"/>
+      <c r="V136" s="20"/>
+      <c r="W136" s="20"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="20"/>
+      <c r="Z136" s="20"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="20"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="20"/>
+      <c r="Q137" s="20"/>
+      <c r="R137" s="20"/>
+      <c r="S137" s="20"/>
+      <c r="T137" s="20"/>
+      <c r="U137" s="20"/>
+      <c r="V137" s="20"/>
+      <c r="W137" s="20"/>
+      <c r="X137" s="20"/>
+      <c r="Y137" s="20"/>
+      <c r="Z137" s="20"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="20"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="20"/>
+      <c r="Q138" s="20"/>
+      <c r="R138" s="20"/>
+      <c r="S138" s="20"/>
+      <c r="T138" s="20"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="20"/>
+      <c r="W138" s="20"/>
+      <c r="X138" s="20"/>
+      <c r="Y138" s="20"/>
+      <c r="Z138" s="20"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="20"/>
+      <c r="O139" s="20"/>
+      <c r="P139" s="20"/>
+      <c r="Q139" s="20"/>
+      <c r="R139" s="20"/>
+      <c r="S139" s="20"/>
+      <c r="T139" s="20"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="20"/>
+      <c r="W139" s="20"/>
+      <c r="X139" s="20"/>
+      <c r="Y139" s="20"/>
+      <c r="Z139" s="20"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="20"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="20"/>
+      <c r="Q140" s="20"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="20"/>
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="20"/>
+      <c r="W140" s="20"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="20"/>
+      <c r="Z140" s="20"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="20"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="20"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="20"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="20"/>
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="20"/>
+      <c r="W143" s="20"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="20"/>
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="20"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="20"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="20"/>
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="20"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
+      <c r="Z148" s="20"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="20"/>
+      <c r="O149" s="20"/>
+      <c r="P149" s="20"/>
+      <c r="Q149" s="20"/>
+      <c r="R149" s="20"/>
+      <c r="S149" s="20"/>
+      <c r="T149" s="20"/>
+      <c r="U149" s="20"/>
+      <c r="V149" s="20"/>
+      <c r="W149" s="20"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="20"/>
+      <c r="Z149" s="20"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="20"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160" s="20"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="20"/>
+      <c r="T160" s="20"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="20"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="20"/>
+      <c r="T161" s="20"/>
+      <c r="U161" s="20"/>
+      <c r="V161" s="20"/>
+      <c r="W161" s="20"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="20"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+      <c r="T162" s="20"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="20"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="20"/>
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+      <c r="T163" s="20"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="20"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="20"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="20"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="20"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="20"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="20"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="20"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="20"/>
+      <c r="O173" s="20"/>
+      <c r="P173" s="20"/>
+      <c r="Q173" s="20"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="20"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="20"/>
+      <c r="O174" s="20"/>
+      <c r="P174" s="20"/>
+      <c r="Q174" s="20"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="20"/>
+      <c r="T174" s="20"/>
+      <c r="U174" s="20"/>
+      <c r="V174" s="20"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="20"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="20"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="20"/>
+      <c r="V175" s="20"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="20"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="20"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+      <c r="T177" s="20"/>
+      <c r="U177" s="20"/>
+      <c r="V177" s="20"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="20"/>
+      <c r="Y177" s="20"/>
+      <c r="Z177" s="20"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
+      <c r="Q178" s="20"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+      <c r="T178" s="20"/>
+      <c r="U178" s="20"/>
+      <c r="V178" s="20"/>
+      <c r="W178" s="20"/>
+      <c r="X178" s="20"/>
+      <c r="Y178" s="20"/>
+      <c r="Z178" s="20"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="20"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="20"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
+      <c r="N180" s="20"/>
+      <c r="O180" s="20"/>
+      <c r="P180" s="20"/>
+      <c r="Q180" s="20"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="20"/>
+      <c r="T180" s="20"/>
+      <c r="U180" s="20"/>
+      <c r="V180" s="20"/>
+      <c r="W180" s="20"/>
+      <c r="X180" s="20"/>
+      <c r="Y180" s="20"/>
+      <c r="Z180" s="20"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
+      <c r="Z181" s="20"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
+      <c r="N182" s="20"/>
+      <c r="O182" s="20"/>
+      <c r="P182" s="20"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="20"/>
+      <c r="U182" s="20"/>
+      <c r="V182" s="20"/>
+      <c r="W182" s="20"/>
+      <c r="X182" s="20"/>
+      <c r="Y182" s="20"/>
+      <c r="Z182" s="20"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
+      <c r="O183" s="20"/>
+      <c r="P183" s="20"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
+      <c r="U183" s="20"/>
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="20"/>
+      <c r="Y183" s="20"/>
+      <c r="Z183" s="20"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="20"/>
+      <c r="N184" s="20"/>
+      <c r="O184" s="20"/>
+      <c r="P184" s="20"/>
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
+      <c r="U184" s="20"/>
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="20"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="20"/>
+      <c r="N185" s="20"/>
+      <c r="O185" s="20"/>
+      <c r="P185" s="20"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="20"/>
+      <c r="U185" s="20"/>
+      <c r="V185" s="20"/>
+      <c r="W185" s="20"/>
+      <c r="X185" s="20"/>
+      <c r="Y185" s="20"/>
+      <c r="Z185" s="20"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20"/>
+      <c r="M186" s="20"/>
+      <c r="N186" s="20"/>
+      <c r="O186" s="20"/>
+      <c r="P186" s="20"/>
+      <c r="Q186" s="20"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="20"/>
+      <c r="U186" s="20"/>
+      <c r="V186" s="20"/>
+      <c r="W186" s="20"/>
+      <c r="X186" s="20"/>
+      <c r="Y186" s="20"/>
+      <c r="Z186" s="20"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
+      <c r="Y187" s="20"/>
+      <c r="Z187" s="20"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20"/>
+      <c r="M188" s="20"/>
+      <c r="N188" s="20"/>
+      <c r="O188" s="20"/>
+      <c r="P188" s="20"/>
+      <c r="Q188" s="20"/>
+      <c r="R188" s="20"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="20"/>
+      <c r="U188" s="20"/>
+      <c r="V188" s="20"/>
+      <c r="W188" s="20"/>
+      <c r="X188" s="20"/>
+      <c r="Y188" s="20"/>
+      <c r="Z188" s="20"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+      <c r="M189" s="20"/>
+      <c r="N189" s="20"/>
+      <c r="O189" s="20"/>
+      <c r="P189" s="20"/>
+      <c r="Q189" s="20"/>
+      <c r="R189" s="20"/>
+      <c r="S189" s="20"/>
+      <c r="T189" s="20"/>
+      <c r="U189" s="20"/>
+      <c r="V189" s="20"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="20"/>
+      <c r="Y189" s="20"/>
+      <c r="Z189" s="20"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+      <c r="M190" s="20"/>
+      <c r="N190" s="20"/>
+      <c r="O190" s="20"/>
+      <c r="P190" s="20"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="20"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+      <c r="M191" s="20"/>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+      <c r="P191" s="20"/>
+      <c r="Q191" s="20"/>
+      <c r="R191" s="20"/>
+      <c r="S191" s="20"/>
+      <c r="T191" s="20"/>
+      <c r="U191" s="20"/>
+      <c r="V191" s="20"/>
+      <c r="W191" s="20"/>
+      <c r="X191" s="20"/>
+      <c r="Y191" s="20"/>
+      <c r="Z191" s="20"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="20"/>
+      <c r="O192" s="20"/>
+      <c r="P192" s="20"/>
+      <c r="Q192" s="20"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="20"/>
+      <c r="U192" s="20"/>
+      <c r="V192" s="20"/>
+      <c r="W192" s="20"/>
+      <c r="X192" s="20"/>
+      <c r="Y192" s="20"/>
+      <c r="Z192" s="20"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="20"/>
+      <c r="O193" s="20"/>
+      <c r="P193" s="20"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="20"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="20"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="20"/>
+      <c r="U194" s="20"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+      <c r="Z194" s="20"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="20"/>
+      <c r="O195" s="20"/>
+      <c r="P195" s="20"/>
+      <c r="Q195" s="20"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="20"/>
+      <c r="T195" s="20"/>
+      <c r="U195" s="20"/>
+      <c r="V195" s="20"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="20"/>
+      <c r="Y195" s="20"/>
+      <c r="Z195" s="20"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="20"/>
+      <c r="O196" s="20"/>
+      <c r="P196" s="20"/>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="20"/>
+      <c r="U196" s="20"/>
+      <c r="V196" s="20"/>
+      <c r="W196" s="20"/>
+      <c r="X196" s="20"/>
+      <c r="Y196" s="20"/>
+      <c r="Z196" s="20"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="20"/>
+      <c r="N197" s="20"/>
+      <c r="O197" s="20"/>
+      <c r="P197" s="20"/>
+      <c r="Q197" s="20"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="20"/>
+      <c r="U197" s="20"/>
+      <c r="V197" s="20"/>
+      <c r="W197" s="20"/>
+      <c r="X197" s="20"/>
+      <c r="Y197" s="20"/>
+      <c r="Z197" s="20"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+      <c r="M198" s="20"/>
+      <c r="N198" s="20"/>
+      <c r="O198" s="20"/>
+      <c r="P198" s="20"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="20"/>
+      <c r="U198" s="20"/>
+      <c r="V198" s="20"/>
+      <c r="W198" s="20"/>
+      <c r="X198" s="20"/>
+      <c r="Y198" s="20"/>
+      <c r="Z198" s="20"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+      <c r="M199" s="20"/>
+      <c r="N199" s="20"/>
+      <c r="O199" s="20"/>
+      <c r="P199" s="20"/>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="20"/>
+      <c r="S199" s="20"/>
+      <c r="T199" s="20"/>
+      <c r="U199" s="20"/>
+      <c r="V199" s="20"/>
+      <c r="W199" s="20"/>
+      <c r="X199" s="20"/>
+      <c r="Y199" s="20"/>
+      <c r="Z199" s="20"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="20"/>
+      <c r="M200" s="20"/>
+      <c r="N200" s="20"/>
+      <c r="O200" s="20"/>
+      <c r="P200" s="20"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="20"/>
+      <c r="U200" s="20"/>
+      <c r="V200" s="20"/>
+      <c r="W200" s="20"/>
+      <c r="X200" s="20"/>
+      <c r="Y200" s="20"/>
+      <c r="Z200" s="20"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="20"/>
+      <c r="M201" s="20"/>
+      <c r="N201" s="20"/>
+      <c r="O201" s="20"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
+      <c r="R201" s="20"/>
+      <c r="S201" s="20"/>
+      <c r="T201" s="20"/>
+      <c r="U201" s="20"/>
+      <c r="V201" s="20"/>
+      <c r="W201" s="20"/>
+      <c r="X201" s="20"/>
+      <c r="Y201" s="20"/>
+      <c r="Z201" s="20"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="20"/>
+      <c r="M202" s="20"/>
+      <c r="N202" s="20"/>
+      <c r="O202" s="20"/>
+      <c r="P202" s="20"/>
+      <c r="Q202" s="20"/>
+      <c r="R202" s="20"/>
+      <c r="S202" s="20"/>
+      <c r="T202" s="20"/>
+      <c r="U202" s="20"/>
+      <c r="V202" s="20"/>
+      <c r="W202" s="20"/>
+      <c r="X202" s="20"/>
+      <c r="Y202" s="20"/>
+      <c r="Z202" s="20"/>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="20"/>
+      <c r="L203" s="20"/>
+      <c r="M203" s="20"/>
+      <c r="N203" s="20"/>
+      <c r="O203" s="20"/>
+      <c r="P203" s="20"/>
+      <c r="Q203" s="20"/>
+      <c r="R203" s="20"/>
+      <c r="S203" s="20"/>
+      <c r="T203" s="20"/>
+      <c r="U203" s="20"/>
+      <c r="V203" s="20"/>
+      <c r="W203" s="20"/>
+      <c r="X203" s="20"/>
+      <c r="Y203" s="20"/>
+      <c r="Z203" s="20"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="20"/>
+      <c r="M204" s="20"/>
+      <c r="N204" s="20"/>
+      <c r="O204" s="20"/>
+      <c r="P204" s="20"/>
+      <c r="Q204" s="20"/>
+      <c r="R204" s="20"/>
+      <c r="S204" s="20"/>
+      <c r="T204" s="20"/>
+      <c r="U204" s="20"/>
+      <c r="V204" s="20"/>
+      <c r="W204" s="20"/>
+      <c r="X204" s="20"/>
+      <c r="Y204" s="20"/>
+      <c r="Z204" s="20"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="20"/>
+      <c r="M205" s="20"/>
+      <c r="N205" s="20"/>
+      <c r="O205" s="20"/>
+      <c r="P205" s="20"/>
+      <c r="Q205" s="20"/>
+      <c r="R205" s="20"/>
+      <c r="S205" s="20"/>
+      <c r="T205" s="20"/>
+      <c r="U205" s="20"/>
+      <c r="V205" s="20"/>
+      <c r="W205" s="20"/>
+      <c r="X205" s="20"/>
+      <c r="Y205" s="20"/>
+      <c r="Z205" s="20"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="20"/>
+      <c r="M206" s="20"/>
+      <c r="N206" s="20"/>
+      <c r="O206" s="20"/>
+      <c r="P206" s="20"/>
+      <c r="Q206" s="20"/>
+      <c r="R206" s="20"/>
+      <c r="S206" s="20"/>
+      <c r="T206" s="20"/>
+      <c r="U206" s="20"/>
+      <c r="V206" s="20"/>
+      <c r="W206" s="20"/>
+      <c r="X206" s="20"/>
+      <c r="Y206" s="20"/>
+      <c r="Z206" s="20"/>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="20"/>
+      <c r="M207" s="20"/>
+      <c r="N207" s="20"/>
+      <c r="O207" s="20"/>
+      <c r="P207" s="20"/>
+      <c r="Q207" s="20"/>
+      <c r="R207" s="20"/>
+      <c r="S207" s="20"/>
+      <c r="T207" s="20"/>
+      <c r="U207" s="20"/>
+      <c r="V207" s="20"/>
+      <c r="W207" s="20"/>
+      <c r="X207" s="20"/>
+      <c r="Y207" s="20"/>
+      <c r="Z207" s="20"/>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+      <c r="M208" s="20"/>
+      <c r="N208" s="20"/>
+      <c r="O208" s="20"/>
+      <c r="P208" s="20"/>
+      <c r="Q208" s="20"/>
+      <c r="R208" s="20"/>
+      <c r="S208" s="20"/>
+      <c r="T208" s="20"/>
+      <c r="U208" s="20"/>
+      <c r="V208" s="20"/>
+      <c r="W208" s="20"/>
+      <c r="X208" s="20"/>
+      <c r="Y208" s="20"/>
+      <c r="Z208" s="20"/>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+      <c r="M209" s="20"/>
+      <c r="N209" s="20"/>
+      <c r="O209" s="20"/>
+      <c r="P209" s="20"/>
+      <c r="Q209" s="20"/>
+      <c r="R209" s="20"/>
+      <c r="S209" s="20"/>
+      <c r="T209" s="20"/>
+      <c r="U209" s="20"/>
+      <c r="V209" s="20"/>
+      <c r="W209" s="20"/>
+      <c r="X209" s="20"/>
+      <c r="Y209" s="20"/>
+      <c r="Z209" s="20"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="20"/>
+      <c r="N210" s="20"/>
+      <c r="O210" s="20"/>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="20"/>
+      <c r="U210" s="20"/>
+      <c r="V210" s="20"/>
+      <c r="W210" s="20"/>
+      <c r="X210" s="20"/>
+      <c r="Y210" s="20"/>
+      <c r="Z210" s="20"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
+      <c r="N211" s="20"/>
+      <c r="O211" s="20"/>
+      <c r="P211" s="20"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="20"/>
+      <c r="U211" s="20"/>
+      <c r="V211" s="20"/>
+      <c r="W211" s="20"/>
+      <c r="X211" s="20"/>
+      <c r="Y211" s="20"/>
+      <c r="Z211" s="20"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
+      <c r="N212" s="20"/>
+      <c r="O212" s="20"/>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="20"/>
+      <c r="U212" s="20"/>
+      <c r="V212" s="20"/>
+      <c r="W212" s="20"/>
+      <c r="X212" s="20"/>
+      <c r="Y212" s="20"/>
+      <c r="Z212" s="20"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="20"/>
+      <c r="K213" s="20"/>
+      <c r="L213" s="20"/>
+      <c r="M213" s="20"/>
+      <c r="N213" s="20"/>
+      <c r="O213" s="20"/>
+      <c r="P213" s="20"/>
+      <c r="Q213" s="20"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="20"/>
+      <c r="U213" s="20"/>
+      <c r="V213" s="20"/>
+      <c r="W213" s="20"/>
+      <c r="X213" s="20"/>
+      <c r="Y213" s="20"/>
+      <c r="Z213" s="20"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A214" s="20"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="20"/>
+      <c r="L214" s="20"/>
+      <c r="M214" s="20"/>
+      <c r="N214" s="20"/>
+      <c r="O214" s="20"/>
+      <c r="P214" s="20"/>
+      <c r="Q214" s="20"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="20"/>
+      <c r="U214" s="20"/>
+      <c r="V214" s="20"/>
+      <c r="W214" s="20"/>
+      <c r="X214" s="20"/>
+      <c r="Y214" s="20"/>
+      <c r="Z214" s="20"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="20"/>
+      <c r="N215" s="20"/>
+      <c r="O215" s="20"/>
+      <c r="P215" s="20"/>
+      <c r="Q215" s="20"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="20"/>
+      <c r="U215" s="20"/>
+      <c r="V215" s="20"/>
+      <c r="W215" s="20"/>
+      <c r="X215" s="20"/>
+      <c r="Y215" s="20"/>
+      <c r="Z215" s="20"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="20"/>
+      <c r="L216" s="20"/>
+      <c r="M216" s="20"/>
+      <c r="N216" s="20"/>
+      <c r="O216" s="20"/>
+      <c r="P216" s="20"/>
+      <c r="Q216" s="20"/>
+      <c r="R216" s="20"/>
+      <c r="S216" s="20"/>
+      <c r="T216" s="20"/>
+      <c r="U216" s="20"/>
+      <c r="V216" s="20"/>
+      <c r="W216" s="20"/>
+      <c r="X216" s="20"/>
+      <c r="Y216" s="20"/>
+      <c r="Z216" s="20"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+      <c r="L217" s="20"/>
+      <c r="M217" s="20"/>
+      <c r="N217" s="20"/>
+      <c r="O217" s="20"/>
+      <c r="P217" s="20"/>
+      <c r="Q217" s="20"/>
+      <c r="R217" s="20"/>
+      <c r="S217" s="20"/>
+      <c r="T217" s="20"/>
+      <c r="U217" s="20"/>
+      <c r="V217" s="20"/>
+      <c r="W217" s="20"/>
+      <c r="X217" s="20"/>
+      <c r="Y217" s="20"/>
+      <c r="Z217" s="20"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="20"/>
+      <c r="N218" s="20"/>
+      <c r="O218" s="20"/>
+      <c r="P218" s="20"/>
+      <c r="Q218" s="20"/>
+      <c r="R218" s="20"/>
+      <c r="S218" s="20"/>
+      <c r="T218" s="20"/>
+      <c r="U218" s="20"/>
+      <c r="V218" s="20"/>
+      <c r="W218" s="20"/>
+      <c r="X218" s="20"/>
+      <c r="Y218" s="20"/>
+      <c r="Z218" s="20"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20"/>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="20"/>
+      <c r="S219" s="20"/>
+      <c r="T219" s="20"/>
+      <c r="U219" s="20"/>
+      <c r="V219" s="20"/>
+      <c r="W219" s="20"/>
+      <c r="X219" s="20"/>
+      <c r="Y219" s="20"/>
+      <c r="Z219" s="20"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
+      <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+      <c r="R220" s="20"/>
+      <c r="S220" s="20"/>
+      <c r="T220" s="20"/>
+      <c r="U220" s="20"/>
+      <c r="V220" s="20"/>
+      <c r="W220" s="20"/>
+      <c r="X220" s="20"/>
+      <c r="Y220" s="20"/>
+      <c r="Z220" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB9E2AA-E38F-4507-A9BD-FA2D4AC2D896}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
@@ -6435,7 +12629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -7094,7 +13288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T244"/>
   <sheetViews>
